--- a/Transform/Resources/Glassdoor/Oregon_glassdoor.xlsx
+++ b/Transform/Resources/Glassdoor/Oregon_glassdoor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="144">
   <si>
     <t>company</t>
   </si>
@@ -43,102 +43,102 @@
     <t>Unitus Community Credit Union</t>
   </si>
   <si>
+    <t>PacificSource</t>
+  </si>
+  <si>
     <t>Seen by Indeed</t>
   </si>
   <si>
-    <t>PacificSource</t>
+    <t>Vevo</t>
+  </si>
+  <si>
+    <t>Blackstone Talent Group</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
   <si>
     <t>PEAK6</t>
   </si>
   <si>
-    <t>Blackstone Talent Group</t>
-  </si>
-  <si>
-    <t>Vevo</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Skillz Inc.</t>
   </si>
   <si>
     <t>BizTek People, Inc.</t>
   </si>
   <si>
+    <t>HITACHI HIGH TECHNOLOGIES AMERICA, INC.</t>
+  </si>
+  <si>
     <t>IGNW</t>
   </si>
   <si>
     <t>Lonza</t>
   </si>
   <si>
-    <t>HITACHI HIGH TECHNOLOGIES AMERICA, INC.</t>
+    <t>General Assembly</t>
+  </si>
+  <si>
+    <t>FlexIT Global</t>
   </si>
   <si>
     <t>Resource Systems Group Inc.</t>
   </si>
   <si>
-    <t>General Assembly</t>
-  </si>
-  <si>
-    <t>FlexIT Global</t>
+    <t>Natera</t>
   </si>
   <si>
     <t>NAVIS</t>
   </si>
   <si>
-    <t>Natera</t>
-  </si>
-  <si>
     <t>Multnomah County</t>
   </si>
   <si>
+    <t>Umpqua Health</t>
+  </si>
+  <si>
     <t>Nike</t>
   </si>
   <si>
-    <t>Umpqua Health</t>
+    <t>Slalom</t>
   </si>
   <si>
     <t>Thermo Fisher Scientific</t>
   </si>
   <si>
-    <t>Slalom</t>
+    <t>Kforce</t>
   </si>
   <si>
     <t>APR Staffing</t>
   </si>
   <si>
-    <t>Kforce</t>
-  </si>
-  <si>
     <t>Battelle</t>
   </si>
   <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
     <t>Mainz Brady Group</t>
   </si>
   <si>
-    <t>Intel Corporation</t>
+    <t>Intel</t>
   </si>
   <si>
     <t>OHSU</t>
   </si>
   <si>
-    <t>Intel</t>
+    <t>Della Infotech Inc.</t>
+  </si>
+  <si>
+    <t>US Bank</t>
+  </si>
+  <si>
+    <t>The Nature Conservancy</t>
   </si>
   <si>
     <t>FLSmidth</t>
   </si>
   <si>
-    <t>Della Infotech Inc.</t>
-  </si>
-  <si>
-    <t>US Bank</t>
-  </si>
-  <si>
-    <t>The Nature Conservancy</t>
-  </si>
-  <si>
     <t>Bayer</t>
   </si>
   <si>
@@ -154,10 +154,13 @@
     <t>Campbell Soup Company</t>
   </si>
   <si>
+    <t>Oregon Health &amp; Science University</t>
+  </si>
+  <si>
     <t>Cylance</t>
   </si>
   <si>
-    <t>Oregon Health &amp; Science University</t>
+    <t>Kforce Technology Staffing</t>
   </si>
   <si>
     <t>Thermo Fisher</t>
@@ -166,27 +169,24 @@
     <t>FlexIT Inc</t>
   </si>
   <si>
-    <t>Kforce Technology Staffing</t>
-  </si>
-  <si>
     <t>Sambasafety</t>
   </si>
   <si>
+    <t>Professional Resource Group</t>
+  </si>
+  <si>
     <t>Centizen</t>
   </si>
   <si>
-    <t>Professional Resource Group</t>
-  </si>
-  <si>
     <t>Oregon Department of Education</t>
   </si>
   <si>
+    <t>Legacy Health</t>
+  </si>
+  <si>
     <t>Randstad US</t>
   </si>
   <si>
-    <t>Legacy Health</t>
-  </si>
-  <si>
     <t>Lithia Motors, Inc.</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>Market Street Talent</t>
   </si>
   <si>
+    <t>Columbia Sportswear</t>
+  </si>
+  <si>
     <t>DNAnexus</t>
   </si>
   <si>
-    <t>Columbia Sportswear</t>
-  </si>
-  <si>
     <t>Enterprise Solutions Inc.</t>
   </si>
   <si>
@@ -211,28 +211,25 @@
     <t>Providence Health &amp; Services</t>
   </si>
   <si>
+    <t>Prolifics</t>
+  </si>
+  <si>
     <t>ApTask</t>
   </si>
   <si>
-    <t>Prolifics</t>
+    <t>Enclipse</t>
   </si>
   <si>
     <t>Airbnb</t>
   </si>
   <si>
-    <t>Enclipse</t>
+    <t>Compass Computing Group, Inc.</t>
   </si>
   <si>
     <t>WE Communications</t>
   </si>
   <si>
-    <t>Compass Computing Group, Inc.</t>
-  </si>
-  <si>
     <t>Portland Public Schools</t>
-  </si>
-  <si>
-    <t>Nvoicepay</t>
   </si>
   <si>
     <t>Worker Sub-Type:Regular Job Description:
@@ -252,67 +249,6 @@
 Current resume Cover letter/summary expressing:
 Why you are interested in working at Blackberry Cylance OR BlackberryThe skills, strengths and expertise you will contribute to our diverse team of extraordinary talent and humble hearts
 Job Family Group Name:Product DevelopmentScheduled Weekly Hours:40Apply Now: click  Apply Now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Overview
-The Data Analyst serves as an analytics specialist in the business, focusing on the management of data from various sources and providing data-driven insights to relevant departments and stakeholders. In this position, the Data Analyst gains exposure to almost all departments of the business, inclusive of data warehousing, client services, marketing, account management, and IT among others. The Data Analyst aids by providing various departments with data analysis, reporting, and dashboard solutions that will enable the achievement of the business’s overall goals.
-The role involves the definition and execution of detailed requirements, the analysis of the business’s needs, and the validation of reporting solutions within the business. The role additionally entails working with internal applications in an effort to enable high-quality products/services for the business’s clients leading to customer satisfaction and the ultimate achievement of goals.
-Primary Responsibilities
-Self-identify and execute upon analytics that bring actionable insights to business leaders. Opens in New Window
-Collaborate with stakeholders and obtain buy-in by providing easy-to-understand explanations of data analysis through reports and visual dashboards that deliver high-value insights.
-Identify and validate the appropriate technological solutions for various needs. Perform analysis for a wide range of requests using data in different formats and from various platforms.
-Troubleshoot data integrity issues, analyze data for completeness to meet business needs, and propose solutions and recommendations.
-Explore data to discover patterns, meaningful relationships, anomalies, and trends.
-Maintain objectivity to ensure processes and products are relevant.
-Make data-driven recommendations.
-Articulately and concisely explain the implications of complex data.
-Position Requirements
-Bachelor’s Degree in related discipline or equivalent experience.
-2 years industry experience in data modeling, analysis, and statistical concepts.
-Ability to solve intricate business problems using various data analysis techniques.
-Working knowledge of SQL, ETL, data cleansing, and various data visualization tools.
-Attention to detail and with strong data analysis and problem-solving skills.
-Ability to function effectively both independently and within a team.
-Excellent interpersonal and persuasive oral and written skills.
-Physical Requirements
-The work is of an intellectual nature. While performing the functions of this job, the employee is required to stand and sit for prolonged periods. Specific vision abilities required include close and medium distance vision and the ability to adjust focus. Must be able to hear normal sounds, distinguish sound as voice and communicate through human speech. This position requires the ability to operate a keyboard, computer mouse, telephone, fax, copier, writing tools, and other standard office equipment. On an occasion, an employee will be asked to lift items weighing up to 35 lbs.
-Other Duties
-Please note this job description is not designed to cover or contain a comprehensive listing of activities, duties or responsibilities that are required of the employee for this job. Duties, responsibilities and activities may change at any time with or without notice.
-We look for the best talent in the business
-APPLY NOW
-Portland, OR | Email us at: jobs@vervent.com
-To apply to this job, click  Easy Apply</t>
-  </si>
-  <si>
-    <t>At Unitus, each employee has an opportunity to make a difference for our members. As part of the Information Technology, Information Management Solutions Department at our headquarters in downtown Portland, the Business Intelligence Analyst will develop analytical models and dashboards from a wide range of business data to enable our commitment for unparalleled service – the kind that creates theUnitus difference. Our strong team of leaders, outstanding culture, above market benefits, continuous involvement in the communities we serve, and competitive pay programs make Unitus an excellent place to contribute and grow your talents.
-Primary Duties:
-• Build and maintain knowledge of information on organizational direction, goals, and industry competitive environment and a variety of complex business unit requirements.
-• Create analytical models and dashboard solutions for current and future business initiatives and train end-users in generating self-service reporting.
-• Maximize the capabilities of business intelligence tools and data sources across the organization.
-•Serve as a subject matter expert in various data tool sets used to measure, validate, and monitor organizational metrics, ensuring reliable results.
-• Assist in cross-functional special projects, one time reporting and analysis and other initiatives.
-As an ideal candidate, you will have:
-• B.A. or B.S. degree with focus in related field of study or equivalent work experience
-• A minimum of 4 years of experience in performing data analytics that includes advanced competencies in SQL, Excel, reporting-writing (Tableau preferred), and working with relational databases.
-• A strong proficiency in and experience with MS Office tools.
-• Strong analytical thinking and problem solving skills required, including ability to anticipate and solve data integrity issues routinely.
-• Effective time management skills with attention to detail, planning, prioritization and follow-up while working independently with minimal supervision and exercising good judgment.
-• Well-developed interpersonal, communication, and collaboration skills to work with both technical and non-technical staff using tact and diplomacy, including the ability to lead meetings, perform presentations and/or develop concise user-friendly written documentation.
-• Formal process improvement methods, tools and best practices helpful.
-What’s it really like to work here?
-Our employees are equal in importance to our members – we are a people-focused organization that places an emphasis on culture. Unitus is local, successful, and committed to continuously improving and growing!
-Unitus Community Credit Union (Unitus) is an equal opportunity employer. We are dedicated to a policy of non-discrimination in employment based on race, color, age, sex, religion, veteran status, national origin, sexual orientation, disability or any other classification protected by applicable federal, state or local law. Applicants may request reasonable accommodation to participate in the application process.Apply Now: click  Apply Now</t>
-  </si>
-  <si>
-    <t>Seen by Indeed is a free service that connects qualified job-seekers (that's you) with top companies hiring tech roles.With one application you can be considered for thousands of tech roles from leading companies on Seen.
-How Seen WorksWe find out what's important to you and match you with your dream job
-Get started Complete a 5-minute application to be considered for roles at hundreds of leading companiesGet matched Companies apply to you with opportunities that reflect your role, location and salary specificationsGet career coaching Level up with free 1:1 coaching, our team will make sure you're ready to tackle any interviewGet your dream job
-Skills and RequirementsWe look for top tech talent to join the Seen platform. Each candidate is reviewed on the following to make sure you're a good fit for our network
-In Demand SkillsFrom strong communication skills to experience with the latest technologies, you have what employers are looking for
-Stand Out QualitiesYou bring unique qualities and traits that stand out and make an impact
-Change readyYou are ready for a career changes and will be responsive to employers who reach out with job opportunities
-Get matched with top tech companies on Seen!</t>
   </si>
   <si>
     <t>Looking for a way to make an impact and help people?
@@ -335,7 +271,20 @@
 Our Values
 We are committed to doing the right thing.We are one team working toward a common goal.We are each responsible for customer service.We practice open communication at all levels of the company to foster individual, team and company growth.We actively participate in efforts to improve our many communities-internally and externally.We encourage creativity, innovation, and the pursuit of excellence.
 Physical Requirements: Stoop and bend. Sit and/or stand for extended periods of time while performing core job functions. Repetitive motions to include typing, sorting and filing. Light lifting and carrying of files and business materials. Ability to read and comprehend both written and spoken English. Communicate clearly and effectively.
-Disclaimer: This job description indicates the general nature and level of work performed by employees within this position and is subject to change. It is not designed to contain or be interpreted as a comprehensive list of all duties, responsibilities, and qualifications required of employees assigned to this position. Employment remains AT-WILL at all times.Start your job application: click  Apply Now</t>
+Disclaimer: This job description indicates the general nature and level of work performed by employees within this position and is subject to change. It is not designed to contain or be interpreted as a comprehensive list of all duties, responsibilities, and qualifications required of employees assigned to this position. Employment remains AT-WILL at all times.Apply Now: click  Apply Now</t>
+  </si>
+  <si>
+    <t>Seen by Indeed is a free service that connects qualified job-seekers (that's you) with top companies hiring tech roles.With one application you can be considered for thousands of tech roles from leading companies on Seen.
+How Seen WorksWe find out what's important to you and match you with your dream job
+Get started Complete a 5-minute application to be considered for roles at hundreds of leading companiesGet matched Companies apply to you with opportunities that reflect your role, location and salary specificationsGet career coaching Level up with free 1:1 coaching, our team will make sure you're ready to tackle any interviewGet your dream job
+Skills and RequirementsWe look for top tech talent to join the Seen platform. Each candidate is reviewed on the following to make sure you're a good fit for our network
+In Demand SkillsFrom strong communication skills to experience with the latest technologies, you have what employers are looking for
+Stand Out QualitiesYou bring unique qualities and traits that stand out and make an impact
+Change readyYou are ready for a career changes and will be responsive to employers who reach out with job opportunities
+Get matched with top tech companies on Seen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vevo is the world’s largest all-premium music video provider, offering artists a global platform with enormous scale through its distribution partners. Vevo connects artists with their audience globally via music videos and original content, working directly with them to find unique ways to bring their music to life visually. Vevo also works with emerging artists, providing them with a platform of global scale and reach, to find and grow their audience. Reaching 26 billion monthly views globally, Vevo has over 400,000 music videos in its catalogue.Take a look inside VevoThe Data Science team’s mission is to harness the power of Vevo’s data to provide better experiences for Vevo’s end users, advertisers, artist &amp; label partners, along with deep insights for internal business groups. This team is also the champion of experimentation and the scientific method, helping to bring data science methodologies to an ever-growing number of business domains. This is a full-time position based in Big Pink in downtown Portland. As a member of our team, you willWork as an embedded team member of one or more product ‘squads’ focused on tackling some of Vevo’s most important challengesBe given a huge potential to innovate in a green-field space: music video offers a unique opportunity for experimentation at scale, building on learnings gleaned from both the music and video verticalsHave a big impact on decisions across all areas of Vevo’s business, including content development, marketing &amp; promotion, advertising and monetizationBecome a trusted advisor to our senior leadership team, and help grow Vevo’s industry profile through targeted public speaking opportunitiesThis describes youYou have a successful track record deploying data science frameworks and approaches in ‘greenfield’ environments, working with a range of stakeholdersProven experience in utilizing various ML packages in Python such as Scikit Learn, TensorFlow, numpy and pandasYou’re not shy about handling your data needs and have a solid grasp of SQL and distributed data ETL processes (preferably in Scala / Spark) such as MapReduce, filters, aggregations and joinsYou have a solid grasp of statistics and how it enables data scientists to solve business problemsYou thrive on working in an agile team environmentYou enjoy music and internet video and possess a deep curiosity for creating music entertainment experiences as well as harnessing the power of data to unlock growth opportunities on global distribution platforms such as YouTubePassionate about making a business impactRequirementsPh.D. and/or another advanced academic study in a relevant data-centric fieldExcellent written and verbal communication skills, with a successful track record of collaboration and influence within a fast-paced environmentPassion for data science advocacy and educationInterested? Great! You might like to knowWe are a tight community of fun, upbeat people with a real passion for music and technologyWe help you remain up to date with new technology including hosting/attending meetupsWe provide daily catered lunches and an assortment of snacks and beverages Excellent benefits packageCompetitive compensation packagesPremier access to music content and new releases of original media content401k MatchVevo considers applicants for all positions without regard to race, color, creed, religion, national origin or ancestry, sex, age, disability, genetic information, veteran status, or any other legally protected status under local, state, or federal law. </t>
   </si>
   <si>
     <t>Job DescriptionBlackstone Talent Group, an award-winning technology consulting and talent agency is seeking a Data Scientist I to join our team at our client s site in Bend, Oregon.About the opportunity
@@ -385,10 +334,35 @@
 EOE of Minorities/Females/Veterans/Disabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Vevo is the world’s largest all-premium music video provider, offering artists a global platform with enormous scale through its distribution partners. Vevo connects artists with their audience globally via music videos and original content, working directly with them to find unique ways to bring their music to life visually. Vevo also works with emerging artists, providing them with a platform of global scale and reach, to find and grow their audience. Reaching 26 billion monthly views globally, Vevo has over 400,000 music videos in its catalogue.Take a look inside VevoThe Data Science team’s mission is to harness the power of Vevo’s data to provide better experiences for Vevo’s end users, advertisers, artist &amp; label partners, along with deep insights for internal business groups. This team is also the champion of experimentation and the scientific method, helping to bring data science methodologies to an ever-growing number of business domains. This is a full-time position based in Big Pink in downtown Portland. As a member of our team, you willWork as an embedded team member of one or more product ‘squads’ focused on tackling some of Vevo’s most important challengesBe given a huge potential to innovate in a green-field space: music video offers a unique opportunity for experimentation at scale, building on learnings gleaned from both the music and video verticalsHave a big impact on decisions across all areas of Vevo’s business, including content development, marketing &amp; promotion, advertising and monetizationBecome a trusted advisor to our senior leadership team, and help grow Vevo’s industry profile through targeted public speaking opportunitiesThis describes youYou have a successful track record deploying data science frameworks and approaches in ‘greenfield’ environments, working with a range of stakeholdersProven experience in utilizing various ML packages in Python such as Scikit Learn, TensorFlow, numpy and pandasYou’re not shy about handling your data needs and have a solid grasp of SQL and distributed data ETL processes (preferably in Scala / Spark) such as MapReduce, filters, aggregations and joinsYou have a solid grasp of statistics and how it enables data scientists to solve business problemsYou thrive on working in an agile team environmentYou enjoy music and internet video and possess a deep curiosity for creating music entertainment experiences as well as harnessing the power of data to unlock growth opportunities on global distribution platforms such as YouTubePassionate about making a business impactRequirementsPh.D. and/or another advanced academic study in a relevant data-centric fieldExcellent written and verbal communication skills, with a successful track record of collaboration and influence within a fast-paced environmentPassion for data science advocacy and educationInterested? Great! You might like to knowWe are a tight community of fun, upbeat people with a real passion for music and technologyWe help you remain up to date with new technology including hosting/attending meetupsWe provide daily catered lunches and an assortment of snacks and beverages Excellent benefits packageCompetitive compensation packagesPremier access to music content and new releases of original media content401k MatchVevo considers applicants for all positions without regard to race, color, creed, religion, national origin or ancestry, sex, age, disability, genetic information, veteran status, or any other legally protected status under local, state, or federal law. </t>
-  </si>
-  <si>
     <t>Excited by using massive amounts of data to develop Machine Learning (ML) and Deep Learning (DL) models? Want to help the largest global enterprises derive business value through the adoption of Artificial Intelligence (AI)? Eager to learn from many different enterprises use cases of AWS ML and DL? Zealous to be key part of Amazon, who has been investing in Machine Learning for decades, pioneering and shaping the worlds AI technology?At Amazon Web Services (AWS), we are helping large enterprises build ML and DL models on the AWS Cloud. We are applying predictive technology to large volumes of data and against a wide spectrum of problems. Our Professional Services organization works together with our AWS customers to address their business needs using AI.AWS Professional Services is a unique consulting team. We pride ourselves on being customer obsessed and highly focused on the AI enablement of our customers. If you have experience with AI, including building ML or DL models, wed like to have you on our team. You will get to work with an innovative company, with great teammates, and have a lot of fun helping our customers.This role will focus specifically on AWS most complex and largest customers in the world to help solve a wide range of business problems. Consultants will provide deep and broad insight to customers and partners to help remove constraints that prevent them from leveraging AWS services to create strategic value.A successful candidate will be a person who enjoys diving deep into data, doing analysis, discovering root causes, and designing long-term solutions. It will be a person who likes to have fun, loves to learn, and wants to innovate in the world of AI.Major responsibilities include:· Understand the customers business need and guide them to a solution using our AWS AI Services, AWS AI Platforms, AWS AI Frameworks, and AWS AI EC2 Instances .· · Assist customers by being able to deliver a ML / DL project from beginning to end, including understanding the business need, aggregating data, exploring data, building &amp; validating predictive models, and deploying completed models to deliver business impact to the organization.· · Use Deep Learning frameworks like MXNet, Caffe 2, Tensorflow, Theano, CNTK, and Keras to help our customers build DL models.· · Use SparkML and Amazon Machine Learning (AML) to help our customers build ML models.· · Work with our Professional Services Big Data consultants to analyze, extract, normalize, and label relevant data.· · Work with our Professional Services DevOps consultants to help our customers operationalize models after they are built.· · Assist customers with identifying model drift and retraining models.· · Research and implement novel ML and DL approaches, including using FPGA.· This is a customer facing role. You will be required to travel to client locations and deliver professional services when needed.Note: If you do not live in a market where we have an open Data Scientist position, please feel free to apply. Our Data Scientists can live in any location that has an AWS office. .Basic Qualifications· A Bachelor or Masters Degree in a highly quantitative field (Computer Science, Machine Learning, Operational Research, Statistics, Mathematics, etc.) or equivalent experience· 4+ years of industry experience in predictive modeling, data science and analysis· Previous experience in a ML or data scientist role and a track record of building ML or DL models· Experience using Python and/or R· Experience using ML libraries, such as scikit-learn, caret, mlr, mllib· Experience in writing and tuning SQL· Experience with SparkML· Experience working with GPUs to develop model· Experience handling terabyte size dataset· Experience using data visualization toolsPreferred Qualifications· PhD in a highly quantitative field (Computer Science, Machine Learning, Operational Research, Statistics, Mathematics, etc.)· 4+ years of industry experience in predictive modeling and analysis· Skills with programming languages, such as Java or C/C++· Ability to develop experimental and analytic plans for data modeling processes, use of strong baselines, ability to accurately determine cause and effect relations· Consulting experience and track record of helping customers with their AI needs· Publications or presentation in recognized Machine Learning, Deep Learning and Data Mining journals/conferences· Experience with AWS technologies like Redshift, S3, EC2, Data Pipeline, &amp; EMR· Combination of deep technical skills and business savvy enough to interface with all levels and disciplines within our customers organization· Demonstrable track record of dealing well with ambiguity, prioritizing needs, and delivering results in a dynamic environment· Experience diving into data to discover hidden patterns· Able to write production level code, which is well-written and explainableAmazon is an Equal Opportunity Employer Minority / Women / Disability / Veteran / Gender Identity / Sexual Orientation / Age.</t>
+  </si>
+  <si>
+    <t>Data Engineer, Irvine - New Startup, PEAK6 EntityPortland
+We are looking for a technical, entrepreneurial-minded Data Engineer to help us create solutions that modernize the traditional financial services industry. You will design, develop, deploy, and maintain a number of real-time databases, data warehouse, and reports that will be the foundation of the new platform. Working alongside experienced engineers and product managers, you will build this exciting platform that will simplify, automate, and facilitate access to financial markets for all.
+The role is for someone who is passionate about applying modern technology to replace monolithic and hard-to-access incumbent systems. Along the way, you'll learn about the problem space and re-imagine existing solutions. You will work on a number of back-end services and integration solutions using multiple languages and frameworks.
+This is an opportunity to join a fast-paced team with the urgency of a startup and expertise of an established organization. We are a flat organization which will afford you the ability to gain access to personnel and resources necessary to execute on your vision. PEAK6 is a privately-held organization focused on delivering long-term value rather than short-term gains. This translates to a focus on bringing solutions for an industry and not bespoke products. Due to the space we innovate in, your products will process billions of transactions per day, in real-time, and power both startup and established industry participants.
+You will report to the VP of Data Engineering, but work closely with everyone across the organization.
+This role can be based out of Irvine or Portland.
+What you'll do all day:
+Design, develop, deploy, and maintain the transactional and analytical databases for the platform
+Think through hard data problems and solve them for the enterprise
+Develop and maintain a clean and consistent database and reporting environment for both internal applications and external client applications
+Write self-documenting and well-tested code with an emphasis on sustainable development practices
+Work as a part of small, productive development team that puts an emphasis on code quality, peer reviews and strong engineering practices
+What you need to succeed:
+A degree in Computer Science, Computer Engineering or other demanding engineering degree (or equivalent work experience)
+ At least three years of professional experience working with databases and SQL. A strong preference for expertise in PostgreSQL.
+ Professional experience with data modeling and data warehousing
+ Professional experience with database administration. Experience architecting database solutions that involve high availability, disaster recovery, and database replication
+ Professional experience designing and developing reports for internal employees and external facing clients
+ Professional experience working as a part of a multi-person development team that utilizes automated testing, CI/CD pipelines, and peer reviews
+ One or more years of mid to senior experience is a necessity as you will be expected to follow established practices and patterns without day to day supervision
+We are writing mostly Golang and SQL. A strong proficiency and in-depth understanding of at least one of the following core languages a must: SQL, Go, C, C++, C#, Java
+Demonstrated skills in process and algorithm design
+Ability to learn new and unfamiliar technologies quickly, as required
+Experience with Kafka, Protobufs, and reactive, multi-tenant applications a big plus
+A DevSecOps mindset and experience with cloud-native applications and infrastructure-as-code is a plus
+Start your job application: click  Easy Apply</t>
   </si>
   <si>
     <t>About Skillz:Skillz is driving the future of entertainment by accelerating the convergence of sports, video games and media for an exploding mobile-first audience worldwide. The company's platform empowers mobile game developers and players with democratized access to fun, fair and skill-based competition for real prizes, shifting the paradigm to make eSports accessible to anyone, anywhere with a mobile device.
@@ -438,38 +412,6 @@
 · AWS is nice to have
 · Tableau is nice to have
 </t>
-  </si>
-  <si>
-    <t>Title: Data Scientist I
-Location: Bend OR
-Type: Perm
-Job #: DE198903111
-Note: This job is not open to C2C or 3rd party candidates.
-IGNW is an engineering-based resourcing company headquartered in Portland, OR with GEO based teams in Seattle, WA / Austin &amp; Dallas, TX / Southeast US / California. We have global partnerships to deliver the industry's top technical solutions and talent to every one of our clients. Some of our strategic partnerships include Google Cloud, Hashicorp, Puppet, Cisco, and Docker.
-WHY IGNW?
-So many reasons, one being IGNW has earned the Best of Staffing Award for providing remarkable service to job seekers, hiring managers and current contractors. Check it out! https://www.bestofstaffing.com/agencies/ignw/
-Take a look and see if this is a match…. or any other jobs posted!
-Project Scope:
-Our client is looking for a Data Scientist to utilize business consulting skills to frame business problems and transform them into analytical problems to be solved using appropriate data science methods. The selected individual will leverage appropriate tools for accessing and cleansing data, developing code, building predictive models, and applying statistical methods to achieve solutions to be validated by the business.
-Responsibilities:
-Execute discovery processes of low to average complexity with stakeholders to define the business problem, understand IT/business constraints and opportunities. Understand the qualitative nature of data required to deliver results.Transform the business problem into an analytical problem and identify data science approaches for achieving the desired business insights.Build data pipelines from sources including internal data (i.e., point-of-sale, ERP and financial systems, websites, etc.) and external data (i.e., weather stations, geo-location systems and social media sites).Apply data cleansing techniques such as deduplication, hashing, scaling and normalization, dimensionality reduction, fuzzy matching, imputation and cross-validation.Design experiments to gain insight and test hypotheses using quantitative methods.Apply various Machine Learning (ML) and advanced analytics techniques to perform classification or prediction tasks.Create reusable artifacts and contribute to data and insight catalogues and documentationRecommend ongoing improvements to data capture methods, analysis methods, mathematical algorithms, etc. that lead to better outcomes and quality
-Requirements:
-Substantial coding knowledge and experience in at least two programming languages: for example, R, Python/Jupyter, C/C++, Java or Scala.Experience with database programming languages including SQL, PL/SQL, or others for relational databases, graph databases or NOSQL/Hadoop-oriented databases.Knowledge and experience in statistical and data mining techniques that include generalized linear model (GLM) / regression, random forest, boosting, trees, text mining, hierarchical clustering, neural networks, graph analysis, data sampling, design of experiments, etc. Familiarity with typical algorithms used by retail businesses (i.e., Churn, Segmentation) preferred.Technical skills for working across multiple deployment environments including cloud, on-premises and hybrid and skills for acquiring new datasets, parsing datasets, organizing datasets, representing data visually and automating data-driven models. Experience with statistical tools and advanced analytics platforms such as: Minitab, SAS, Knime, Dataiku, Anaconda, Google Collaboratory.Certified Analytics Professional credential (available through INFORMS.ORG) preferred
-Please note: Candidates may need to pass a drug and/or background check.
-Please send in your resume today and be sure to get a quick response from one of our onsite recruiters: resumes@ignw.io
-Check out our reviews here: glassdoor.com
-To view other IGNW opportunities please visit https://www.ignw.io/jobs</t>
-  </si>
-  <si>
-    <t>Today Lonza is a global leader in life sciences. We are more than 15,000 employees in more than 100 locations around the world. While we work in science, there’s no magic formula to how we do it. Our greatest scientific solution is talented people working together, devising ideas that help businesses to help people. In exchange, we let our people own their careers. Their ideas, big and small, genuinely improve the world. And that’s the kind of work we want to be part of.
-Lonza Pharma &amp; Biotech has an opening for an Analytical Scientist opening at our Bend, OR location.
-As an Analytical Scientist, you will be responsible for method development and validation to support process development, tech transfer, release testing and stability activities for pharmaceutical drug product programs.
-Key responsibilities:
-Apply your knowledge of analytical chemistry fundamentals in an experimental setting to guide the development of pharmaceutical productsCollaborate with project teams and interface with internal teams as well as external clientsDocument all experiments and results thoroughly with detailed observationsExercise technical discretion in the design, execution and interpretation of experiments that contribute to project strategies and goalsCritically assess experimental data and provide interpretation of resultsPrepare technical reports, summaries and protocolsPrepare detailed scientific presentations for clients, colleagues and managementParticipate in data reviews and client discussionsDemonstrate a high level of professional expertise in one or more technical areas
-Key requirements:
-Bachelor’s degree required with experience relating to pharmaceutical formulation development and analytical chemistry preferredFamiliarity with analyzing, and interpreting common analytical data used for amorphous pharmaceutical applications such as DSC (Differential Scanning Calorimetry), particle sizing, dissolution, GC (Gas Chromatography), XRPD (X-ray Powder Diffraction), HPLC (High-performance Liquid Chromatography), and KF (Karl Fisher) preferredFamiliarity in method development, qualification and validation around common pharmaceutical analytical techniques preferredCMC (Chemistry, Manufacturing and Controls) regulatory experience with advancing drug product formulations through later stage clinical trials encouragedDemonstrated ability to work successfully in a highly collaborative, team-orientated, customer-focused environmentExcellent verbal and written communication skills and ability to work in a dynamic, multi-disciplinary, research and manufacturing environment
-People come to Lonza for the challenge and creativity of solving complex problems and developing new ideas in life sciences. In return, we offer the satisfaction that comes with improving lives all around the world. The satisfaction that comes with making a meaningful difference.
-Lonza is an equal opportunity employer. All qualified applicants will receive consideration for employment without regard to race, religion, color, national origin, sex, sexual orientation, gender identity, age, status as a qualified individual with disability, protected veteran status, or any other characteristic protected by law.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -554,6 +496,92 @@
 with Disabilities</t>
   </si>
   <si>
+    <t>Title: Data Scientist I
+Location: Bend OR
+Type: Perm
+Job #: DE198903111
+Note: This job is not open to C2C or 3rd party candidates.
+IGNW is an engineering-based resourcing company headquartered in Portland, OR with GEO based teams in Seattle, WA / Austin &amp; Dallas, TX / Southeast US / California. We have global partnerships to deliver the industry's top technical solutions and talent to every one of our clients. Some of our strategic partnerships include Google Cloud, Hashicorp, Puppet, Cisco, and Docker.
+WHY IGNW?
+So many reasons, one being IGNW has earned the Best of Staffing Award for providing remarkable service to job seekers, hiring managers and current contractors. Check it out! https://www.bestofstaffing.com/agencies/ignw/
+Take a look and see if this is a match…. or any other jobs posted!
+Project Scope:
+Our client is looking for a Data Scientist to utilize business consulting skills to frame business problems and transform them into analytical problems to be solved using appropriate data science methods. The selected individual will leverage appropriate tools for accessing and cleansing data, developing code, building predictive models, and applying statistical methods to achieve solutions to be validated by the business.
+Responsibilities:
+Execute discovery processes of low to average complexity with stakeholders to define the business problem, understand IT/business constraints and opportunities. Understand the qualitative nature of data required to deliver results.Transform the business problem into an analytical problem and identify data science approaches for achieving the desired business insights.Build data pipelines from sources including internal data (i.e., point-of-sale, ERP and financial systems, websites, etc.) and external data (i.e., weather stations, geo-location systems and social media sites).Apply data cleansing techniques such as deduplication, hashing, scaling and normalization, dimensionality reduction, fuzzy matching, imputation and cross-validation.Design experiments to gain insight and test hypotheses using quantitative methods.Apply various Machine Learning (ML) and advanced analytics techniques to perform classification or prediction tasks.Create reusable artifacts and contribute to data and insight catalogues and documentationRecommend ongoing improvements to data capture methods, analysis methods, mathematical algorithms, etc. that lead to better outcomes and quality
+Requirements:
+Substantial coding knowledge and experience in at least two programming languages: for example, R, Python/Jupyter, C/C++, Java or Scala.Experience with database programming languages including SQL, PL/SQL, or others for relational databases, graph databases or NOSQL/Hadoop-oriented databases.Knowledge and experience in statistical and data mining techniques that include generalized linear model (GLM) / regression, random forest, boosting, trees, text mining, hierarchical clustering, neural networks, graph analysis, data sampling, design of experiments, etc. Familiarity with typical algorithms used by retail businesses (i.e., Churn, Segmentation) preferred.Technical skills for working across multiple deployment environments including cloud, on-premises and hybrid and skills for acquiring new datasets, parsing datasets, organizing datasets, representing data visually and automating data-driven models. Experience with statistical tools and advanced analytics platforms such as: Minitab, SAS, Knime, Dataiku, Anaconda, Google Collaboratory.Certified Analytics Professional credential (available through INFORMS.ORG) preferred
+Please note: Candidates may need to pass a drug and/or background check.
+Please send in your resume today and be sure to get a quick response from one of our onsite recruiters: resumes@ignw.io
+Check out our reviews here: glassdoor.com
+To view other IGNW opportunities please visit https://www.ignw.io/jobs</t>
+  </si>
+  <si>
+    <t>Today Lonza is a global leader in life sciences. We are more than 15,000 employees in more than 100 locations around the world. While we work in science, there’s no magic formula to how we do it. Our greatest scientific solution is talented people working together, devising ideas that help businesses to help people. In exchange, we let our people own their careers. Their ideas, big and small, genuinely improve the world. And that’s the kind of work we want to be part of.
+Lonza Pharma &amp; Biotech has an opening for an Analytical Scientist opening at our Bend, OR location.
+As an Analytical Scientist, you will be responsible for method development and validation to support process development, tech transfer, release testing and stability activities for pharmaceutical drug product programs.
+Key responsibilities:
+Apply your knowledge of analytical chemistry fundamentals in an experimental setting to guide the development of pharmaceutical productsCollaborate with project teams and interface with internal teams as well as external clientsDocument all experiments and results thoroughly with detailed observationsExercise technical discretion in the design, execution and interpretation of experiments that contribute to project strategies and goalsCritically assess experimental data and provide interpretation of resultsPrepare technical reports, summaries and protocolsPrepare detailed scientific presentations for clients, colleagues and managementParticipate in data reviews and client discussionsDemonstrate a high level of professional expertise in one or more technical areas
+Key requirements:
+Bachelor’s degree required with experience relating to pharmaceutical formulation development and analytical chemistry preferredFamiliarity with analyzing, and interpreting common analytical data used for amorphous pharmaceutical applications such as DSC (Differential Scanning Calorimetry), particle sizing, dissolution, GC (Gas Chromatography), XRPD (X-ray Powder Diffraction), HPLC (High-performance Liquid Chromatography), and KF (Karl Fisher) preferredFamiliarity in method development, qualification and validation around common pharmaceutical analytical techniques preferredCMC (Chemistry, Manufacturing and Controls) regulatory experience with advancing drug product formulations through later stage clinical trials encouragedDemonstrated ability to work successfully in a highly collaborative, team-orientated, customer-focused environmentExcellent verbal and written communication skills and ability to work in a dynamic, multi-disciplinary, research and manufacturing environment
+People come to Lonza for the challenge and creativity of solving complex problems and developing new ideas in life sciences. In return, we offer the satisfaction that comes with improving lives all around the world. The satisfaction that comes with making a meaningful difference.
+Lonza is an equal opportunity employer. All qualified applicants will receive consideration for employment without regard to race, religion, color, national origin, sex, sexual orientation, gender identity, age, status as a qualified individual with disability, protected veteran status, or any other characteristic protected by law.</t>
+  </si>
+  <si>
+    <t>General Assembly (GA) is a global educational company. Focusing on the most relevant and in demand skills across data, design, business and technology, General Assembly is empowering a global community to pursue work they love through best-in-class instruction and access to opportunities. GA works with students online and in person across 15 campuses around the world and thousands of companies as partners in course development and graduate placement as well as through GA's corporate training and development business. Additionally, GA's focus on affordable and accessible education combined with our education-to-employment approach is helping to create a diverse talent pipeline.
+We are looking for a Data Scientist to teach our new full time class:
+Our Data Science Immersive course is a brand-new, life-changing educational experience where students leave with the skills and mindsets to take on new careers as Data Analysts and Scientists. We are looking for an instructor to spearhead this transformation through leading General Assembly's Data Science Immersive course.
+We are hiring a full-time Data Science Instructor in Atlanta and Seattle and willing to relocate an amazing data scientist for the position either temporarily (14 weeks total) or permanently.
+Why teach our Data Science Immersive?
+If you are looking to make a life-changing impact by sharing your love for software development with the next generation of developers, we'd love for you to consider joining our team. We deliver more than just skills training, and are looking for teachers who share our vision for a community of lifelong learners pursuing work that they love. As a full-time teacher for our flagship full-time web development program, you will join us on one of our many campuses to:
+Work closely with one or more co-instructors to guide students through a rigorous, transformational journey towards roles as data analysts and scientists
+Become a better leader, and mentor as you learn from veteran instructors and our world-class instructional coaches.
+Inspire and support students as they identify their passions and drive their own continued learning beyond the curriculum.
+Adapt our global curriculum and use it to guide your teaching, building your own lesson plans as needed and contributing back your lessons learned over time.
+Facilitate a safe, supportive, and energetic community that welcomes the various needs and learning styles of your students.
+Skills and Qualifications
+You have at least 2+ years of professional data science experience.
+You are eager to shape the skills, minds, and trajectories of the newest generation of data scientists.
+You are the person that your colleagues naturally gravitate to when they are trying to figure something out.
+Must Haves:
+You are an expert in SQL, Python and related Python libraries (pandas, numpy).
+You have fluency in the following topics: statistics; manipulation of large data sets; data visualization techniques and tools such as Tableau, matplotlib; machine learning algorithms such as naive bayes, SVMs, decision trees, KNN, K-means clustering.
+Nice to haves:
+Familiarity with python libraries NLTK and sci-kit learn, Hadoop, Apache Spark, JavaScript, D3.js; R; Basket-weaving,.
+You are on top of big data trends
+You have previous data science or engineering teaching experience, through a course, team training, etc.
+Responsibilities and Duties
+Teach eight hours a day, five days a week, for 12 weeks.
+Instructors will need to commit 10 - 20 hours a week to working with us on curriculum/preparing to teach.
+Work closely with two – three co-instructors or teaching assistants to provide students with meaningful and prompt feedback on their progress.
+Work alongside GA staff and teaching team to best meet the needs and learning styles of your students.
+Guide students through development of a stellar final project that will showcase their abilities to hiring managers.
+Facilitate a dynamic and collaborative classroom community.
+Inspire students to persevere through the challenges of solving user experience design problems.
+Core Competencies
+Directing Others
+Approachability
+Technical Skills in UX Design
+Motivating Others
+Presentation Skills
+Time Management
+Planning
+Managing Diversity
+Licensure
+General Assembly is a licensed school in all states that we operate in, and some states require instructors to be licensed to teach. If hired, you will be required to submit and be approved as an instructor in relevant states. Directions for becoming licensed will be shared with you during onboarding. Licensure requirements vary by state, but you may be required to provide academic transcripts and to answer questions pertaining to moral character, professional conduct, education, and work history. General Assembly will pay for all licensing fees.</t>
+  </si>
+  <si>
+    <t>FLEX IT has an immediate need for Data Scientist.Were looking to expand our Hadoop Engineering team to keep pace. As a Sr. Bigdata Data science developer you will work with a variety of talented teammates and be a driving force for building solutions. You will be working on development projects related to consumer behavior, commerce, and web analytics.
+All levels of Data Scientists are encouraged to apply.
+Responsibilities:
+Design and implement distributed data processing pipelines using Spark, Hive, Python, and other tools and languages prevalent in the Hadoop ecosystem. Ability to design and implement end to end solution. Build utilities, user defined functions, and frameworks to better enable data flow patterns. Research, evaluate and utilize new technologies/tools/frameworks centered around Hadoop and other elements in the Big Data space. Build and incorporate automated unit tests, participate in integration testing efforts. Work with teams to resolving operational &amp; performance issues Work with architecture/engineering leads and other teams to ensure quality solutions are implements, and engineering best practices are defined and adhered to.
+Qualification:
+MS/BS degree in a computer science field or related discipline 6+ years experience in large-scale software development 2+ year experience in Hadoop/Big Data Strong development skills around Hadoop, Spark, Hive 1+ years experience in workflow orchestration tools like Airflow Strong skills in Python, shell scripting, and SQL Experience with AWS components and services, particularly, EMR, S3, and Lambda Good understanding of file formats including Parquet, Avro, JSON and others Good understanding of R, TensorFlow, SAS or similar Experience with performance/scalability tuning, algorithms and computational complexity Experience (at least familiarity) with data warehousing, dimensional modeling and ETL development Proven ability to work cross functional teams to deliver appropriate resolution
+Nice to have:
+Front end UI development experience, specifically Node JS or Angular JS Machine learning frameworks
+At Flex IT we believe that diverse teams improve our business. We are an equal opportunity employer and do not discriminate on the basis of race, religion, color, nationality, gender, sexual orientation, age, marital status, veteran status, or disability status.</t>
+  </si>
+  <si>
     <t>Job DescriptionRSG is seeking a Data Scientist to join our employee-owned consulting practice to assist with the development and application of our transportation analytics solutions. Our transportation analytics solutions are used by transportation planning agencies throughout the world to make informed decisions that impact our world. Our solutions encompass and integrate market research, Big Data, forecasting/modeling, and web data visualization. This position is based in Portland, Oregon.
 AS A DATA SCIENTIST
 Your work involves a wide range of transportation analytics activities, including project scoping and delivery, data analysis and scripting, modeling, development and evaluation of insights, documentation of technical work, and client interaction. You manage technical activities, responsible for innovative solutions to technical problems and interface with clients. You work in small teams with RSG’s Data Scientists, Modelers, and Software Engineers to design, implement, and support solutions. You like to solve challenging problems, care about building efficient, maintainable and legible solutions, and enjoy obtaining the required domain knowledge. You fully engage in the organizational context and constraints in which the solutions will be used, and the challenge and discipline of building and supporting solutions that resist the ravages of time. You have strong written and verbal communication skills that enable you to communicate technical work clearly.
@@ -564,17 +592,6 @@
 BENEFITS
 100% employee-owned company with employee stock ownership plan Award winning culture and workplace flexibility Competitive 401(k) with matching, medical with HSA, dental, vision, disability and other insurance coverageMany other unique benefits including floating holidays, paid volunteer time, fuel efficient vehicle purchase assistance, transit fare contribution and first-time homebuyer’s down payment assistance
 RSG is not currently accepting H-1B applicants for this position. EEO/AA Employer/Vet/Disabled.TO APPLY Please visit our employment page: http://rsginc.com/join-us</t>
-  </si>
-  <si>
-    <t>FLEX IT has an immediate need for Data Scientist.Were looking to expand our Hadoop Engineering team to keep pace. As a Sr. Bigdata Data science developer you will work with a variety of talented teammates and be a driving force for building solutions. You will be working on development projects related to consumer behavior, commerce, and web analytics.
-All levels of Data Scientists are encouraged to apply.
-Responsibilities:
-Design and implement distributed data processing pipelines using Spark, Hive, Python, and other tools and languages prevalent in the Hadoop ecosystem. Ability to design and implement end to end solution. Build utilities, user defined functions, and frameworks to better enable data flow patterns. Research, evaluate and utilize new technologies/tools/frameworks centered around Hadoop and other elements in the Big Data space. Build and incorporate automated unit tests, participate in integration testing efforts. Work with teams to resolving operational &amp; performance issues Work with architecture/engineering leads and other teams to ensure quality solutions are implements, and engineering best practices are defined and adhered to.
-Qualification:
-MS/BS degree in a computer science field or related discipline 6+ years experience in large-scale software development 2+ year experience in Hadoop/Big Data Strong development skills around Hadoop, Spark, Hive 1+ years experience in workflow orchestration tools like Airflow Strong skills in Python, shell scripting, and SQL Experience with AWS components and services, particularly, EMR, S3, and Lambda Good understanding of file formats including Parquet, Avro, JSON and others Good understanding of R, TensorFlow, SAS or similar Experience with performance/scalability tuning, algorithms and computational complexity Experience (at least familiarity) with data warehousing, dimensional modeling and ETL development Proven ability to work cross functional teams to deliver appropriate resolution
-Nice to have:
-Front end UI development experience, specifically Node JS or Angular JS Machine learning frameworks
-At Flex IT we believe that diverse teams improve our business. We are an equal opportunity employer and do not discriminate on the basis of race, religion, color, nationality, gender, sexual orientation, age, marital status, veteran status, or disability status.</t>
   </si>
   <si>
     <t>Job DescriptionBlackstone Talent Group, an award-winning technology consulting and talent agency is seeking a Data Scientist II to join our team at our client s site in Bend, Oregon.
@@ -629,6 +646,37 @@
 Advanced knowledge of statistical tools and advanced analytics platforms such as: Minitab, SAS, Knime, Dataiku,
 Blackstone Talent Group is a division of Blackstone Technology Group, a global IT services and solutions firm that implements technological solutions across commercial industry verticals and the US Federal Government. Blackstone s global talent augmentation practice was founded in 1998. Blackstone Talent Group has offices in San Francisco, Denver, Houston, Colorado Springs, and Washington, DC. We specialize in providing clients the best talent across a variety of industries and sectors.
 EOE of Minorities/Females/Veterans/Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+POSITION SUMMARY
+The Data Scientist participates in the design and prototyping of cutting edge algorithms for analysis of genetic data.
+PRIMARY RESPONSIBILITIES
+Analyze next-generation sequencing data ranging from single research experiments to commercial data sets of hundreds of thousands of samples.
+Develop Python software infrastructure to support algorithm testing and simulation studies.
+Contribute to research and product development efforts in the statistics group.
+Produce correct conclusions based on rigorous mathematical analysis and principles of statistics and probability.
+Produce high quality technical documentation including research reports and algorithm specifications.
+QUALIFICATIONS
+Bachelors degree in engineering, applied math, statistics, or similar, Masters degree preferred
+At least 1 year practical experience in scientific data analysis using software such as Python or Matlab
+KNOWLEDGE, SKILLS, AND ABILITIES
+Strong foundation in probability theory and/or statistics including concepts like joint and conditional probability distributions, parameter estimation and hypothesis testing
+Excellent verbal and written communication skills and the desire to work in a dynamic and collaborative environment.
+Desire to learn about human genetics and sequencing technologies.
+PHYSICAL DEMANDS AND WORK ENVIRONMENT
+Duties are typically performed in an office setting.
+This position requires the ability to use a computer keyboard, communicate over the telephone and read printed material.
+Duties may require working outside normal working hours (evenings and weekends) at times.
+OUR OPPORTUNITY
+Driven by the passion for elevating the science and utility of genetic testing, Natera is committed to helping families identify and manage genetic diseases. Natera is a rapidly-growing diagnostics company with proprietary bioinformatics and molecular technology for analyzing DNA. Our complex technology has been proven clinically and commercially in the prenatal testing space and we are actively researching its applications in the liquid biopsy space for developing products with oncology applications.
+The Natera team consists of highly dedicated statisticians, geneticists, doctors, laboratory scientists, business professionals, software engineers and many other professionals from world-class institutions, who care deeply for our work and each other. When you join Natera, youll work hard and grow quickly. Working alongside the elite of the industry, youll be stretched and challenged, and take pride in being part of a company that is changing the landscape of genetic disease management.
+WHAT WE OFFER
+Competitive Benefits. Healthy catered lunches, Premium snacks and beverages, Onsite gym with cardio and weight-training equipment, Game room with satellite TV, Onsite dry cleaning and alteration service with pick-up and delivery, Employee-organized sport leagues, Happy hours and BBQs, Generous Employee Referral program.
+For more information, visit www.natera.com.
+Natera is proud to be an Equal Opportunity Employer. We are committed to ensuring a diverse and inclusive workplace environment, and welcome people of different backgrounds, experiences, abilities and perspectives. Inclusive collaboration benefits our employees, our community and our patients, and is critical to our mission of changing the management of disease worldwide.
+All qualified applicants are encouraged to apply, and will be considered without regard to race, color, religion, gender, gender identity or expression, sexual orientation, national origin, genetics, age, veteran status, disability or any other legally protected status. We also consider qualified applicants regardless of criminal histories, consistent with applicable laws.
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -684,38 +732,7 @@
 Performance: I am part of an ambitious team and my results matter
 Attitude: I am a positive influence, I love my team and the work we do
 NAVIS is an Equal Opportunity Employer (EOE).
-Apply Now: click  Easy Apply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-POSITION SUMMARY
-The Data Scientist participates in the design and prototyping of cutting edge algorithms for analysis of genetic data.
-PRIMARY RESPONSIBILITIES
-Analyze next-generation sequencing data ranging from single research experiments to commercial data sets of hundreds of thousands of samples.
-Develop Python software infrastructure to support algorithm testing and simulation studies.
-Contribute to research and product development efforts in the statistics group.
-Produce correct conclusions based on rigorous mathematical analysis and principles of statistics and probability.
-Produce high quality technical documentation including research reports and algorithm specifications.
-QUALIFICATIONS
-Bachelors degree in engineering, applied math, statistics, or similar, Masters degree preferred
-At least 1 year practical experience in scientific data analysis using software such as Python or Matlab
-KNOWLEDGE, SKILLS, AND ABILITIES
-Strong foundation in probability theory and/or statistics including concepts like joint and conditional probability distributions, parameter estimation and hypothesis testing
-Excellent verbal and written communication skills and the desire to work in a dynamic and collaborative environment.
-Desire to learn about human genetics and sequencing technologies.
-PHYSICAL DEMANDS AND WORK ENVIRONMENT
-Duties are typically performed in an office setting.
-This position requires the ability to use a computer keyboard, communicate over the telephone and read printed material.
-Duties may require working outside normal working hours (evenings and weekends) at times.
-OUR OPPORTUNITY
-Driven by the passion for elevating the science and utility of genetic testing, Natera is committed to helping families identify and manage genetic diseases. Natera is a rapidly-growing diagnostics company with proprietary bioinformatics and molecular technology for analyzing DNA. Our complex technology has been proven clinically and commercially in the prenatal testing space and we are actively researching its applications in the liquid biopsy space for developing products with oncology applications.
-The Natera team consists of highly dedicated statisticians, geneticists, doctors, laboratory scientists, business professionals, software engineers and many other professionals from world-class institutions, who care deeply for our work and each other. When you join Natera, youll work hard and grow quickly. Working alongside the elite of the industry, youll be stretched and challenged, and take pride in being part of a company that is changing the landscape of genetic disease management.
-WHAT WE OFFER
-Competitive Benefits. Healthy catered lunches, Premium snacks and beverages, Onsite gym with cardio and weight-training equipment, Game room with satellite TV, Onsite dry cleaning and alteration service with pick-up and delivery, Employee-organized sport leagues, Happy hours and BBQs, Generous Employee Referral program.
-For more information, visit www.natera.com.
-Natera is proud to be an Equal Opportunity Employer. We are committed to ensuring a diverse and inclusive workplace environment, and welcome people of different backgrounds, experiences, abilities and perspectives. Inclusive collaboration benefits our employees, our community and our patients, and is critical to our mission of changing the management of disease worldwide.
-All qualified applicants are encouraged to apply, and will be considered without regard to race, color, religion, gender, gender identity or expression, sexual orientation, national origin, genetics, age, veteran status, disability or any other legally protected status. We also consider qualified applicants regardless of criminal histories, consistent with applicable laws.
-</t>
+Start your job application: click  Easy Apply</t>
   </si>
   <si>
     <t>Current employees: Please apply through the employee portal to be considered for this opportunity.
@@ -759,6 +776,36 @@
 Recruiter:Gary MiguelEmail:gary.c.miguel@multco.usPhone:+1 (503) 9887454 x87454Application information may be used throughout the entire selection process. This process is subject to change without notice.
 Disclaimer: This announcement is intended as a general descriptive recruitment guide and is subject to change. It does not constitute either an expressed or implied contract.
 Job Profile:6073 - Data Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION PURPOSE
+The Data Scientist develops data-driven solutions using analytical, statistical and programming skills to collect, analyze and interpret large data sets. This position builds and implements models, algorithms and simulations to drive business results with data-based insights.
+ESSENTIAL JOB RESPONSIBILITIES
+Create predictive models to support and improve strategic, tactical and operational decisions.Develops custom data models and algorithms to large data sets to improve healthcare outcomes and reduce cost for members.Apply statistics, data mining, machine learning techniques to develop studies to evaluate patient outcomes and recommendations to meet patients’ and providers’ needs.Respond to operational data requests and create ad-hoc queries to support research projects.Effectively interpret and communicate strategic results to varied audiences.Utilize SQL to perform advanced-level data extraction, transformation and data management, full document and manage library of source code and algorithms for future use.Provide analytic support for companywide process and operational improvement efforts.Comply with organization’s internal policies and procedures, Code of Conduct, Compliance Plan, along with applicable Federal, State, and local regulations.Other duties as assigned.
+QUALIFICATIONS
+Bachelor’s degree required, master’s degree preferred, in a quantitative field (e.g. mathematics, computer science, physics, economics, statistics, etc.)2-3 years relevant experience, preferably in the healthcare industry.Strong SQL programming skills in addition to working knowledge and experience using statistical analysis tools.Passion for improving health care experience through data science techniques.Excellent verbal and written communication skills.Proven strong project management, multi-tasking and presentation skills.Experience with health care claims, data analysis and financials.
+</t>
+  </si>
+  <si>
+    <t>Title: Data Scientist II
+Location: Bend OR
+Type: Perm
+Job #: DE110446111
+Note: This job is not open to C2C or 3rd party candidates.
+IGNW is an engineering-based resourcing company headquartered in Portland, OR with GEO based teams in Seattle, WA / Austin &amp; Dallas, TX / Southeast US / California. We have global partnerships to deliver the industry's top technical solutions and talent to every one of our clients. Some of our strategic partnerships include Google Cloud, Hashicorp, Puppet, Cisco, and Docker.
+WHY IGNW?
+So many reasons, one being IGNW has earned the Best of Staffing Award for providing remarkable service to job seekers, hiring managers and current contractors. Check it out! https://www.bestofstaffing.com/agencies/ignw/
+Take a look and see if this is a match…. or any other jobs posted!
+Project Scope:
+Our client is looking for a Data Scientist to perform individual work assignments, participate in working groups and contribute to enterprise projects, often independently representing the Data Science and BI Team.
+Responsibilities:
+Lead discovery processes of high complexity with stakeholders to define the business problem, understand IT and business constraints and opportunities and understand the qualitative nature of data required to deliver results.Transform the business problem into an analytical problem and identify a wide breadth of data science approaches for achieving the desired business insights and criteria for selecting among approaches.Build data pipelines from sources including internal data (i.e., point-of-sale, ERP and financial systems, websites, etc.) and external data (i.e., weather stations, geo-location systems and social media sites).Apply data cleansing techniques such as deduplication, hashing, scaling and normalization, dimensionality reduction, fuzzy matching, imputation and cross-validation.Design experiments to gain insight and test hypotheses using quantitative methods.Apply various Machine Learning (ML) and advanced analytics techniques to perform classification or prediction tasks.Collaborate with data engineers and IT to evaluate and implement deployment options for developed models.Identify the lifecycle of any developed models and insights and develop maintenance plans for ongoing operational use of insights and recommendations.Assist the Data Science and BI team lead in creating high quality summaries of Data Science projects and results for presentation to steering committees and executive groupsAssist the Data Science and BI team lead in scoping and prioritizing data science projectsCreate reusable artifacts and contribute to data and insight catalogues and documentationBe a lead participant in peer reviews and presentation of specialist data science topics to advance collective team understanding of relevant technologies and techniques to accomplish data science outcomes
+Requirements:
+Advanced coding knowledge and experience in at least two programming languages: for example, R, Python/Jupyter, C/C++, Java or Scala.Advanced knowledge of database programming languages including SQL, PL/SQL, or others for relational databases, graph databases or NOSQL/Hadoop-oriented databases.Broad Knowledge and experience in statistical and data mining techniques that include generalized linear model (GLM) / regression, random forest, boosting, trees, text mining, hierarchical clustering, neural networks, graph analysis, data sampling, design of experiments, etc. Familiarity with typical algorithms used by retail businesses (i.e., Churn, Segmentation) required.Technical skills for working across multiple deployment environments including cloud, on-premises and hybrid and skills for acquiring new datasets, parsing datasets, organizing datasets, representing data visually and automating data-driven models.Advanced knowledge of statistical tools and advanced analytics platforms such as: Minitab, SAS, Knime, Dataiku, Anaconda, Google CollaboratoryCertified Analytics Professional credential (available through INFORMS.ORG) required
+Please note: Candidates may need to pass a drug and/or background check.
+Please send in your resume today and be sure to get a quick response from one of our onsite recruiters: resumes@ignw.io
+Check out our reviews here: glassdoor.com
+To view other IGNW opportunities please visit https://www.ignw.io/jobs</t>
   </si>
   <si>
     <t>Become a Part of the NIKE, Inc. Team
@@ -863,64 +910,42 @@
 NIKE, Inc. is committed to employing a diverse workforce. Qualified applicants will receive consideration without regard to race, color, religion, sex, national origin, age, sexual orientation, gender identity, gender expression, veteran status, or disability.</t>
   </si>
   <si>
-    <t xml:space="preserve">POSITION PURPOSE
-The Data Scientist develops data-driven solutions using analytical, statistical and programming skills to collect, analyze and interpret large data sets. This position builds and implements models, algorithms and simulations to drive business results with data-based insights.
-ESSENTIAL JOB RESPONSIBILITIES
-Create predictive models to support and improve strategic, tactical and operational decisions.Develops custom data models and algorithms to large data sets to improve healthcare outcomes and reduce cost for members.Apply statistics, data mining, machine learning techniques to develop studies to evaluate patient outcomes and recommendations to meet patients’ and providers’ needs.Respond to operational data requests and create ad-hoc queries to support research projects.Effectively interpret and communicate strategic results to varied audiences.Utilize SQL to perform advanced-level data extraction, transformation and data management, full document and manage library of source code and algorithms for future use.Provide analytic support for companywide process and operational improvement efforts.Comply with organization’s internal policies and procedures, Code of Conduct, Compliance Plan, along with applicable Federal, State, and local regulations.Other duties as assigned.
-QUALIFICATIONS
-Bachelor’s degree required, master’s degree preferred, in a quantitative field (e.g. mathematics, computer science, physics, economics, statistics, etc.)2-3 years relevant experience, preferably in the healthcare industry.Strong SQL programming skills in addition to working knowledge and experience using statistical analysis tools.Passion for improving health care experience through data science techniques.Excellent verbal and written communication skills.Proven strong project management, multi-tasking and presentation skills.Experience with health care claims, data analysis and financials.
-</t>
-  </si>
-  <si>
-    <t>Title: Data Scientist II
-Location: Bend OR
-Type: Perm
-Job #: DE110446111
-Note: This job is not open to C2C or 3rd party candidates.
-IGNW is an engineering-based resourcing company headquartered in Portland, OR with GEO based teams in Seattle, WA / Austin &amp; Dallas, TX / Southeast US / California. We have global partnerships to deliver the industry's top technical solutions and talent to every one of our clients. Some of our strategic partnerships include Google Cloud, Hashicorp, Puppet, Cisco, and Docker.
-WHY IGNW?
-So many reasons, one being IGNW has earned the Best of Staffing Award for providing remarkable service to job seekers, hiring managers and current contractors. Check it out! https://www.bestofstaffing.com/agencies/ignw/
-Take a look and see if this is a match…. or any other jobs posted!
-Project Scope:
-Our client is looking for a Data Scientist to perform individual work assignments, participate in working groups and contribute to enterprise projects, often independently representing the Data Science and BI Team.
-Responsibilities:
-Lead discovery processes of high complexity with stakeholders to define the business problem, understand IT and business constraints and opportunities and understand the qualitative nature of data required to deliver results.Transform the business problem into an analytical problem and identify a wide breadth of data science approaches for achieving the desired business insights and criteria for selecting among approaches.Build data pipelines from sources including internal data (i.e., point-of-sale, ERP and financial systems, websites, etc.) and external data (i.e., weather stations, geo-location systems and social media sites).Apply data cleansing techniques such as deduplication, hashing, scaling and normalization, dimensionality reduction, fuzzy matching, imputation and cross-validation.Design experiments to gain insight and test hypotheses using quantitative methods.Apply various Machine Learning (ML) and advanced analytics techniques to perform classification or prediction tasks.Collaborate with data engineers and IT to evaluate and implement deployment options for developed models.Identify the lifecycle of any developed models and insights and develop maintenance plans for ongoing operational use of insights and recommendations.Assist the Data Science and BI team lead in creating high quality summaries of Data Science projects and results for presentation to steering committees and executive groupsAssist the Data Science and BI team lead in scoping and prioritizing data science projectsCreate reusable artifacts and contribute to data and insight catalogues and documentationBe a lead participant in peer reviews and presentation of specialist data science topics to advance collective team understanding of relevant technologies and techniques to accomplish data science outcomes
-Requirements:
-Advanced coding knowledge and experience in at least two programming languages: for example, R, Python/Jupyter, C/C++, Java or Scala.Advanced knowledge of database programming languages including SQL, PL/SQL, or others for relational databases, graph databases or NOSQL/Hadoop-oriented databases.Broad Knowledge and experience in statistical and data mining techniques that include generalized linear model (GLM) / regression, random forest, boosting, trees, text mining, hierarchical clustering, neural networks, graph analysis, data sampling, design of experiments, etc. Familiarity with typical algorithms used by retail businesses (i.e., Churn, Segmentation) required.Technical skills for working across multiple deployment environments including cloud, on-premises and hybrid and skills for acquiring new datasets, parsing datasets, organizing datasets, representing data visually and automating data-driven models.Advanced knowledge of statistical tools and advanced analytics platforms such as: Minitab, SAS, Knime, Dataiku, Anaconda, Google CollaboratoryCertified Analytics Professional credential (available through INFORMS.ORG) required
-Please note: Candidates may need to pass a drug and/or background check.
-Please send in your resume today and be sure to get a quick response from one of our onsite recruiters: resumes@ignw.io
-Check out our reviews here: glassdoor.com
-To view other IGNW opportunities please visit https://www.ignw.io/jobs</t>
-  </si>
-  <si>
-    <t>Job Title:
-Data Engineer, Data &amp; Analytics
-Slalom is a modern consulting firm focused on strategy, technology, and business transformation. In 29 cities across the US, UK, and Canada, Slalom's teams have autonomy to move fast and do what's right. They're backed by seven regional innovation hubs, a global culture of collaboration, and partnerships with the world's top technology providers. Founded in 2001 and headquartered in Seattle, Slalom has organically grown to over 7,000 employees. Slalom was named one of Fortune's 100 Best Companies to Work For in 2016, 2017, 2018 and 2019 and is regularly recognized by employees as a best place to work.
-As a Data Engineer, you should have the expertise in the design, creation, management, and business use of extremely large data sets. You know and love working with analytics tools, can write excellent SQL, and ETL code (e.g. SSIS, Informatica, etc), and can use your technical skills and creative approaches to help clients solve their most critical business challenges. This individual will be an integral part of Portland's Data and Analytics Practice and, in addition to working with clients, collaborate closely with members of the Slalom team who are focused on data visualization, advanced analytics, data science, data strategy, and process.
-Responsibilities:
-Design, construct, test, optimize, and deploy solutions.
-Deliver transformative solutions to clients that are aligned to industry best practices and provide thought leadership in data architecture and engineering space.
-Exceptional analytical, conceptual, and problem-solving abilities.
-Experience with both traditional (e.g., MSBI) and modern (e.g., cloud) data architecture.
-Strong focus on back end data integration.
-Strong focus on the design and development of data warehouses.
-Highly self-motivated to deliver both independently and with strong team collaboration.
-Ability to creatively take on new challenges and work outside comfort zone.
-Strong written and oral communications along with presentation and interpersonal skills.
-Conduct and support white-boarding sessions, workshops, design sessions, and project meetings as needed, playing a key role in client relations.
-Strong aptitude for learning new technologies and analytics techniques.
-Qualifications:
-Quantitative background with 3+ years of experience applying data architecture or engineering to solve real-world business problems.
-Experience with:
-o Relational and dimensional database structures, theories, principles, and practices.
-o Manipulating / mining data from database tables (SQL Server, Redshift, Oracle).
-o SQL, ETL / ELT optimization, and analytics tools including R, HiveQL, and Python.
-o Distributed processing on Hadoop or Spark.
-o Solution architecture on cloud platforms such as AWS, Azure, an GCP.
-Highly self-motivated to deliver both independently and with strong team collaboration.
-Bachelor's degree in a technical field (computer science, applied mathematics, statistics, etc.).
-Practical knowledge of data visualization tools (e.g., Tableau, Power BI) a plus.
-Slalom is an equal opportunity employer and all qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, disability status, protected veteran status, or any other characteristic protected by law.SDL2017</t>
+    <t>Job DescriptionWhen you join us at Thermo Fisher Scientific, youll be part of a smart, driven team that shares your passion for exploration and discovery. With revenues of $22 billion and the largest investment in R&amp;D in the industry, we give our people the resources and opportunities to make significant contributions to the world.
+Location/Division Specific Information
+The Bend, Oregon Thermo Fisher Scientific site consists of approximately 100 highly motivated employees focused on contract early phase clinical drug product formulation development and manufacture. The site is a part of Pharma Services, which also encompasses manufacture of drug substance, scale up, clinical distribution, and commercial drug product launch. Bend, Oregon is a beautiful community of around 95,000 people commonly known as the outdoor playground of the West because of the myriad of available outdoor activities and desirable living conditions.
+How will you make an impact?
+An early development scientist will provide analytical support for pre-clinical and clinical development material. Analytical support includes chemical and physical analysis for active ingredients, intermediates, and final products. Personnel will manage technical/scientific project activities at the task level.
+What will you do?
+Work in a fast-paced environment performing testing using various analytical techniques, such as HPLC, Dissolution, GC, KF, XRPD, DSC, DVS.Record and report results of analysis in accordance with prescribed lab procedures and systems.Clearly and accurately communicate the results of work by creating documentation of the testing/analysis and obtained results.Review and interpret analytical test results. Make recommendations based on data.Contribute to maintaining a clean and organized laboratory workspace consistent with management expectations.Collaborate with internal scientific, analytical, and laboratory functional areas to meet project and team objectives.Manage projects at a task level under supervision.Perform all duties in strict compliance with Standard Operating Procedures, Good Manufacturing Practices, Good Laboratory Practices, and Safety guidelines. Maintain the necessary compliance status required by company and facility standards.
+How will you get here?
+Bachelor of Science in Chemistry, Biochemistry, Biology, or related physical science.One year experience performing chemical tests with chromatographic, spectroscopic, or other analytical techniques preferred.Equivalent combinations of education, training, and relevant work experience may be considered.
+Knowledge, Skills, Abilities
+Knowledge and understanding of basic instrumental technologies.Knowledge of qualitative and quantitative chemical analysis.Knowledge of Good Manufacturing Practices and data integrity (ALCOA).Good critical and logical thinking skills.Effective written, interpersonal, and presentation skills.Ability to read, analyze, and interpret technical procedures.Ability to apply mathematical operations to such tasks as determination of test reliability, analysis of variance, and correlation techniques.Proficiency in Microsoft Office Suite (Word, Excel, and PowerPoint).Ordinary ambulatory skills and physical coordination sufficient to move about office locations; ability to stand, walk, stoop, kneel, crouch periodically for prolonged periods of time; manipulation (lift, carry, move) of light to medium weights of 10-35 pound pounds; arm, hand and finger dexterity, including ability to grasp and type for prolonged periods of time; visual acuity to use a keyboard, computer monitor, operate equipment, and read materials for prolonged periods of time; ability to sit, reach with hands and arms, talk, and hear for prolonged periods of time.
+Shift: 2:00 pm - 11:00 pm
+If you are an individual with a disability who requires reasonable accommodation to complete any part of our application process, click here for further assistance.Thermo Fisher Scientific is an EEO/Affirmative Action Employer and does not discriminate on the basis of race, color, religion, sex, sexual orientation, gender identity, national origin, protected veteran status, disability or any other legally protected status.</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITIES:Kforce has a client in search of a Data Scientist in Beaverton, Oregon (OR).
+Duties:
+ Designs, develops and programs methods, processes, and systems to consolidate and analyze structured/unstructured, diverse -big data- sources to generate actionable insights and solutions for client services and product enhancement
+ Builds "products" for Analysis
+ Interacts with product and service teams to identify questions and issues for data analysis and experiments
+ Develops and codes software programs, algorithms and automated processes to cleanse, integrate and evaluate large datasets from multiple disparate sources
+ Identifies meaningful insights from large data and metadata sources; Interprets and communicates insights and findings from analysis and experiments to product, service, and business managers
+REQUIREMENTS:
+ Data Visualization
+ Technology Infrastructure
+ Business Operations
+ Data Science
+ Algorithms
+Additional:
+ Client Services
+ Data Analysis
+ Datasets
+ Marketing Analysis
+ Metadata
+With a commitment to innovation, this client employs some of the world's top engineers and designers! It was ranked as one of the 'Happiest Companies to Work For' and awarded an 'Employees' Choice Award 2018 Best Place to Work' by Glassdoor. Its culture thrives by embracing diversity and rewarding imagination. If you would like to make a difference globally and locally, apply now.
+Kforce is an Equal Opportunity/Affirmative Action Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, pregnancy, sexual orientation, gender identity, national origin, age, protected veteran status, or disability status.</t>
   </si>
   <si>
     <t>Job DescriptionData Scientist
@@ -945,29 +970,6 @@
 Masters Degree in applied mathematics, statistics, computer science, operations research, or a related quantitative fieldCompany DescriptionAPR Staffing was born from the merging of two well-respected staffing firms in Portland. ieSolutions, founded in 2002, has a long history as one of the largest locally owned technical staffing companies. Professional Resource Group, aka Data Resource Group, founded in 2009, also earned wide-spread acclaim for being a fast-growing and highly motivated professional staffing agency. Both companies have been recent award winners for the Portland Business Journal's Fastest Growing Private Companies. The two firms, now as APR Staffing, make for one of the fastest growing and most respected professional staffing companies in Oregon and Southwest Washington.
 Collaborating with our customers, we augment their workforce with technical and administrative talent. We provide information technology, engineering, operation, technician, analyst, project management and administrative talent to our clients through out the Pacific Northwest.
 APR Staffing is an equal opportunity employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, age, sexual orientation, gender identity, national origin, disability, protected veteran status, or any other characteristic protected by law.</t>
-  </si>
-  <si>
-    <t>RESPONSIBILITIES:Kforce has a client in search of a Data Scientist in Beaverton, Oregon (OR).
-Duties:
- Designs, develops and programs methods, processes, and systems to consolidate and analyze structured/unstructured, diverse -big data- sources to generate actionable insights and solutions for client services and product enhancement
- Builds "products" for Analysis
- Interacts with product and service teams to identify questions and issues for data analysis and experiments
- Develops and codes software programs, algorithms and automated processes to cleanse, integrate and evaluate large datasets from multiple disparate sources
- Identifies meaningful insights from large data and metadata sources; Interprets and communicates insights and findings from analysis and experiments to product, service, and business managers
-REQUIREMENTS:
- Data Visualization
- Technology Infrastructure
- Business Operations
- Data Science
- Algorithms
-Additional:
- Client Services
- Data Analysis
- Datasets
- Marketing Analysis
- Metadata
-With a commitment to innovation, this client employs some of the world's top engineers and designers! It was ranked as one of the 'Happiest Companies to Work For' and awarded an 'Employees' Choice Award 2018 Best Place to Work' by Glassdoor. Its culture thrives by embracing diversity and rewarding imagination. If you would like to make a difference globally and locally, apply now.
-Kforce is an Equal Opportunity/Affirmative Action Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, pregnancy, sexual orientation, gender identity, national origin, age, protected veteran status, or disability status.</t>
   </si>
   <si>
     <t>At Nike, Inc. we no longer see borders between the worlds of physical and digital, or of product and service. This marriage of environments has given birth to the Connected Product team. It is our mission to create a unique digital identity for all Nike products from production through consumer engagement, enabling seamless visibility, traceability, authentication and member experiences. We explore the edges of possible while delivering at scale, working across all functions of Nike, serving every athlete.
@@ -1010,593 +1012,6 @@
 For more information about our other openings, please visit www.battelle.org/careers</t>
   </si>
   <si>
-    <t>Full Description:One of Portland's largest enterprises has an immediate opening for a Performance Analyst!
-Ability to work with various stakeholders to build and manage operational metrics to assess cause and create solutions for complex problems.
-Will be asked to conduct analyses and modeling on performance end to end business analytics.
-Must be detail oriented and have experience working with and reporting KPIs to determine the best paths forward.
-Must have strong influence management skills across various levels of an organization.
-Previous experience with SQL, Tableau, and Excel.
-Please send your resume to JB at resumes@mbg.com and reference job number #JBG-16931.
-Mainz Brady Group provides technology staffing solutions to the best known companies in Software Development, Finance, Electronics/Manufacturing, Retail, R&amp;D, Services, Biotechnology, Healthcare and Telecommunications.
-We specialize in Information Technology, Technical Sales and Marketing Staffing on a Contract, Contract to Hire, and Direct Hire basis.
-To see a complete listing of all current openings please visit us at www.mbg.com/
-#Dice - provided by Dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Job ID: JR0120553
-Job Category: Engineering
-Primary Location: Hillsboro, OR US
-Other Locations:Job Type: College Grad
-RET DESIGN DATA SCIENTIST
-Job Description
-Intel invites you to join the team that develops and implements Resolution Enhancement Techniques that assist the successful pattern transfer from mask to wafer in a sub-wavelength imaging regime and enable the manufacture of every Intel silicon product. This team resides at the critical interface between Design and Manufacturing at Intel and enables the first step in silicon manufacturing.
-o	The performance numerical modeling, computational simulation, layout manipulation, correction algorithm development using scientific software tools written specifically for these purposes.
-o	You will utilize knowledge of state-of-the-art principles and theories in photolithography, optics, modeling, and software engineering to investigate potential new technologies.
-o	This highly specialized and complex work requires the acquisition, handling, vetting and analysis of very large datasets; involves all aspects of process flow and methodology development including: requirements gathering, functional specification, scientific programming, quality assurance, technical approval, and coordination of massive distributed data processing operations.
-o	You will deliver test masks, test patterns, sampling strategies, process models, defect detection strategies, and software algorithms to perform VLSI layout manipulation, correction, and detection of patterning liabilities for one or more photomasks.
-The candidate should possess the below behavioral traits:
-o	Ability to be self-directing and show initiative
-o	Good communication skills and demonstrated ability to summarize complex data sets for technical and nontechnical audiences
-This is an entry level position and will be compensated accordingly. Upon applying for this opportunity, you will also be considered for other similar opportunities available.
-The successful candidate is both detail and results oriented, relies on sound engineering judgment, and has solid data analysis, critical thinking, and presentation skills to arrive at timely solutions for complex and highly constrained problems. This opportunity is intensely collaborative &amp; requires the continuous interaction with fellow group members and adjacent engineering teams, to absorb an in depth understanding of technology design rules, discover integrated requirements, and negotiate with internal customers to identify optimal solutions in a dynamic environment. The successful candidate will need to continue their education in this fascinating and multi-disciplinary field and expects to continuously encounter and overcome problems with root cause solutions.Qualifications
-Successful candidates must possess a Master's or Ph.D. in Electrical, Chemical, or Mechanical Engineering; Mathematics, Optics, Nano-Engineering, Materials Science, Physics or Related Scientific Discipline.
-AND at least one of the following qualifications are needed (having more than one will be preferred):
-�	1+year experience in mathematics, including algebra, linear algebra, calculus, statistics and familiarity with DOE Techniques;
-�	1+ years' experience in C++ Programming or Python scripting, Statistics packages such as JMP, General scientific applications such as MatLab or Mathematica;
-�	6+ months experience and comfort in Linux/Unix environments
-�	6+ months of experience in Computational simulation
-�	6+ months of experience in Semiconductor fabrication, Nano-Lithography
-�	6+ months of experience in algorithm development
-�	6+ months experience in Nanometrology (e.g. Scanning Electron Microscopy, Atomic Force Microscopy, etc.)
-�	6+ months experience in Image Processing, Geometric and Fourier opticsInside this Business GroupAs the world's largest chip manufacturer, Intel strives to make every facet of semiconductor manufacturing state-of-the-art -- from semiconductor process development and manufacturing, through yield improvement to packaging, final test and optimization, and world class Supply Chain and facilities support. Employees in the Technology and Manufacturing Group are part of a worldwide network of design, development, manufacturing, and assembly/test facilities, all focused on utilizing the power of Moore’s Law to bring smart, connected devices to every person on Earth
-Posting Statement
-All qualified applicants will receive consideration for employment without regard to race, color, religion, religious creed, sex, national origin, ancestry, age, physical or mental disability, medical condition, genetic information, military and veteran status, marital status, pregnancy, gender, gender expression, gender identity, sexual orientation, or any other characteristic protected by local law, regulation, or ordinance....
-USCollege GradJR0120553Hillsboro
-</t>
-  </si>
-  <si>
-    <t>Department Overview
-The Staff Scientist serves as a core director for Dr. Winthrop's collaborative research unit. The Staff Scientist directs a team of 10+ employees and is responsible for the development, initiation, and implementation of multiple infectious disease epidemiological studies and clinical trials. The Staff Scientist assists Dr. Winthrop in generating new project ideas, grant writing, and developing project proposals. This position plays a leadership role alongside Dr. Winthrop within the OHSU-PSU School of Public Health through mentoring undergraduate, MPH, and PhD students, as well as through maintaining strong ties with the OHSU community, Oregon Health Authority, health departments, and other local leaders in public health and/or clinical care. This position will also oversee Dr. Winthrop's start-up support team, who provides study start-up support institution-wide for industry-funded projects.
-Function/Duties of Position
-Provide essential scientific research support to the research unit, including database design and build, protocol development, and epidemiological analyses.
-Grow the research portfolio for the research unit in accordance with institutional goals and departmental objectives through collaborative outreach within and beyond OHSU, manuscript writing and presentation of research results at national scientific conferences, generation of research hypotheses via analysis of investigator-owned data sets.
-Manage Dr. Winthrop's start-up support team, assisting in the development, implementation, and evaluation of operating procedures, while assuring operational excellence.
-Provide mentorship to junior staff, master-level and PhD students, and volunteers.
-Oversee and support staff of the research unit, providing direction for the achievement of overall OHSU objectives.
-Required Qualifications
-Doctoral Degree in relevant field (Epidemiology, Biostatistics, Public Health)
-5 years of collaborative research experience
-Experienced in manuscript writing research proposal development
-Experience leading and managing a team of 3 or more people
-Exceptional organizational skills, and documentation skills, both written and verbal.
-Advanced knowledge of Microsoft Office (Access, Excel, PowerPoint, and Word).
-Proficient knowledge of statistical software (e.g. SAS, STATA, S-Plus, R).
-Proficient knowledge of statistics with demonstrated ability to apply analytical methods to large, multi-modal datasets
-Ability to self-initiate projects and work independently and as part of a team.
-Must be able to balance competing priorities and interests
-Ability to meet deadlines, and willingness to serve as a positive and professional role model.
-Preferred Qualifications
-5 years of collaborative research experience that includes experience in a management position, fiscal administrative position, or other advanced administrative role which demonstrates ability to manage in an academic research setting or similar business or non-profit institution.
-Strong publication record
-Experience developing budgets
-A working knowledge of FDA, DHHS, IRB, and other agency guidelines that govern clinical research.
-Experience with biostatistics/longitudinal analyses, pharmacoepidemiology, and clinical epidemiology.
-Background in computer programming and scripting.
-Good Clinical Practice certification
-Additional Details
-Prolonged standing. Lifting 25+ pounds. Be able to travel to off-site locations 1-2 times per week.
-All are welcome
-Oregon Health &amp; Science University values a diverse and culturally competent workforce. We are proud of our commitment to being an equal opportunity, affirmative action organization that does not discriminate against applicants on the basis of any protected class status, including disability status and protected veteran status. Individuals with diverse backgrounds and those who promote diversity and a culture of inclusion are encouraged to apply. To request reasonable accommodation contact the Affirmative Action and Equal Opportunity Department at 503-494-5148 or aaeo@ohsu.edu.SDL2017</t>
-  </si>
-  <si>
-    <t>Job DescriptionLooking for a challenge? Want to work with some really smart people? In this position, you will work in a team with other leading developers at Intel and interface with a large technology development organization. As a Sr. Imaging Data Scientist in Intel's Computational Imaging Technology group, you will participate in the development of next generation computational imaging tools, defect detection tools using AI, and smart design tools that harness the power of big-data and AI - all of which are important contributors to Intel's march along Moore's Law. You will be actively engaged in the development of new algorithms and working to invent new methods. You will also be involved in supporting mission critical software in a production environment.
-Intel is in the midst of an exciting transformation, going beyond being a company that makes the world's best chips to one that also delivers wonderful experiences for people. With help from talented employees like you, we will tightly integrate hardware, software and services into compelling experiences in pursuit of our vision. This decade we will create and extend computing technology to connect and enrich the lives of every person on Earth.
-The ideal candidate should exhibit the following behavioral traits:
-Good communication skillsDemonstrated attention to detailResults orientation
-This is an entry level position and will be compensated accordingly.
-Qualifications
-You must possess the below minimum qualifications to be initially considered for this position. Preferred qualifications are in addition to the minimum requirements and are considered a plus factor in identifying top candidates. Experience listed below would be obtained through a combination of your school work/classes/research and/or relevant previous job and/or internship experiences.
-Minimum Qualifications:
-The candidate must have a PhD degree in Electrical Engineering, Computer Science, Physics, Computer Engineering, Chemical Engineering, Applied Mathematics or other relevant related degrees with software focus.Candidate must have 6+ months of work or educational experience in the following: coding or CAD tool development.
-Preferred Qualifications:
-3+ months of experience with:
-Optical Proximity Correction OPC and lithography simulation.Technology CAD tools numerical process simulators.Large scale data processing and database designAI algorithmsBig data visualization
-&lt;/p&gt;Inside this Business GroupAs the world's largest chip manufacturer, Intel strives to make every facet of semiconductor manufacturing state-of-the-art -- from semiconductor process development and manufacturing, through yield improvement to packaging, final test and optimization, and world class Supply Chain and facilities support. Employees in the Technology and Manufacturing Group are part of a worldwide network of design, development, manufacturing, and assembly/test facilities, all focused on utilizing the power of Moores Law to bring smart, connected devices to every person on Earth&lt;/p&gt;Posting Statement
-All qualified applicants will receive consideration for employment without regard to race, color, religion, religious creed, sex, national origin, ancestry, age, physical or mental disability, medical condition, genetic information, military and veteran status, marital status, pregnancy, gender, gender expression, gender identity, sexual orientation, or any other characteristic protected by local law, regulation, or ordinance....</t>
-  </si>
-  <si>
-    <t>Data Engineer
-Are you a data geek and do you want to be part of the digitalization journey at a company working towards a sustainable tomorrow?
-About the role
-Join us and become a Data Engineer where you’ll be responsible for developing our platform for new data driven products and enable the stakeholders in advanced analytics and artificial intelligence techniques to achieve better results.
-About the department
-The Data &amp; Analytics department is an integral part of FLSmidth Group Digital. Your team will be committed to democratize the data and creating value from data by the application of domain expertise, tools and technology for contemporary analytics.
-We know you have a life outside of work which is why we offer a range of benefits that allow you to plan your life accordingly. We therefore endeavour to promote a lifestyle that meets your individual needs while also enabling you to be fully engaged at work.
-Your responsibilities:
-Ensure data collection procedures for building analytic systemsDesign and build scalable and data intensive solutions including integration of multiple data sources into a consolidated platform and design models for data warehouses, lakes and martsOperationalize algorithms developed by data scientistsWork with business partners to deliver on requirements in an agile manner as well as communicate with other engineers and properly document your design and solutionBuild and deploy applications and solutions with CI/CD pipeline
-Your qualifications:
-Bachelor, Master or PhD. degree in computer Science/Engineering or similar.Programming language experience in python or C# preferably with SQL skills.Good knowledge around software design and high-quality coding principles. Decent amount of experience in agile software development (Scrum or Kanban) &amp; source control toolkit such as git, bitbucket. Meanwhile, adequate experience with DevOps and automation in software development (Jenkins, Bamboo, Azure DevOps etc.)Good understanding of data lake, data warehousing tooling and their differences. Adequate knowledge and experience of different data storage types (e.g. SQL, NoSQL, GraphDB, Queue, AWS S3 and Azure Blob).Experience or interest in data processing/engineering tools such as Azure Data Factory, Azure functions, Databricks (General Spark), Apache Airflow, Snowflake etc. as well as containerization solution such as Docker.Team player, excel at communicating ideas on both high and detailed level. Good communication skills in English both written and oral.
-As an equal opportunity employer, FLSmidth embraces diversity and equality by promoting an environment of inclusion. We encourage applicants of all backgrounds and perspectives to apply – the more diverse our employees are, the stronger our team is.
-Build a better world
-FLSmidth helps build societies all over the world by contributing to the infrastructure needed for global economic growth. It is a big responsibility and we are committed to driving productivity while minimising environmental impact. To achieve this, your skills, your curiosity, and your drive for change are important. Together, we create a collaborative, safe and supportive environment in which to discover ways to build a better future.
-Application and contact
-Questions about the position may be directed to Xiaoshen Hou, Lead Data Engineer, at +45 36 18 12 93. Please apply by clicking “apply” on this page. The application deadline is December 29th, 2019. Kindly note that we will be reviewing applications and conducting interviews on an ongoing basis so please apply as soon as possible.
-Please state where you saw the ad and have reference no. R5990 ready at hand when you contact us.
-No recruiters and unsolicited agency referrals please.
-About FLSmidth
-FLSmidth is an international engineering company with an annual turnover of approx. EUR 2.7 bn. We are the world’s leading supplier of plants, machinery, services and spare parts to the cement and minerals industries. To maintain our market-leading position, we invest massively in technological innovation, R&amp;D and training of our 11,900 employees worldwide. For further information on FLSmidth business and services, visit www.flsmidth.com.</t>
-  </si>
-  <si>
-    <t>Job DescriptionJob Title : Data Analyst
-Location : Hillsboro, OR
-Duration : 12 Months
-Job Description:
-This role provides analytic support to the R&amp;D Global Portfolio Group, which manages the Division-wide portfolio of development projects. This role helps enable a quantitative and accessible global portfolio.
-Reporting to the Portfolio Director, the primary responsibility is to apply Power BI, other tools, data sources, and analytical techniques to answer a wide range of high-impact business questions and present the insights in a concise and effective manner. This position is ideal for a candidate who enjoys working in a technical role within an R&amp;D team.
-Position Responsibilities:
-Create and use Power BI reports or other tools to gain insight into portfolio questions
-Analyze results for data integrity
-Visualize the global portfolio to monitor and improve portfolio and roadmap health
-Work with others across the Program Management, Finance, and other organizations
-Define approaches and execute analyses using existing and new data sources
-Align system connection points (SQL, SharePoint, Power BI datasets, Excel files)
-Support migration of existing semi-manual reporting to automated solutions
-Present findings (verbal or written) from discoveries.
-Skills and Requirements:
-Power BI and Excel pivot tables, database knowledge, and ETL experience
-Awareness of SQL, DAX, and data manipulation techniques
-Ability to troubleshoot and resolve report problems both on a local client and on the web
-Tenacity for accuracy and attention to detail to achieve timely results
-Perceptive with exacting quality standards for both data integrity and stylistic consistency
-Resourceful in an ambiguous environment
-Effectively work with colleagues in the Central European Time zone
-Contextually aware, excellent verbal and written English
-Prerequisites
-Pursuing or completed 4-yr degree in a data-related discipline (Data Analytics, Info Systems, Computing Science) or equivalent experience
-Proficiency with software applications such as Outlook, Teams, Planner
-Skills:
-Working with Finance groupDo lots of financial dataSQL- KnowledgeSharepoint- KnowledgePower Bi- Knowledge (1st Priority )ExcelFamiliar with ETLExcellent Communication and written skillsOnsite rolePursuing or complete the college degree is PlusRecent graduate will be fine with knowledge with the above skillsInterview- phone and inpersonLocal candidate
-Company DescriptionDella Infotech Inc is in staffing business for five years. Over the years, we have placed hundreds of candidates to various temp and permanent positions with our 50+ happy clients all over US and Canada including Fortune 500 corporations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Skillz:
-Skillz is driving the future of entertainment by accelerating the convergence of sports, video games and media for an exploding mobile-first audience worldwide. The company's platform empowers mobile game developers and players with democratized access to fun, fair and skill-based competition for real prizes, shifting the paradigm to make eSports accessible to anyone, anywhere with a mobile device.
-Skillz helps developers build multi-million dollar game franchises by turning content into competitive social gaming properties for the world's 2.6 billion gamers. The company has already worked with 13,000 game developers, leveraging its patented technology to host over 800 million tournaments for 18 million players worldwide.
-This year, Skillz was recognized as one of Fast Company's Most Innovative Companies and CNBC Disruptor 50 (for the second time). In 2018, Skillz was listed as one of Forbes' Next Billion-Dollar Startups and Entrepreneur Magazine's 100 Brilliant Companies. In 2017, Inc. Magazine ranked Skillz the No. 1 fastest-growing private company in America.
-The company is backed by leading venture capitalists, media companies, and professional sports luminaries, ranging from Liberty Global, Accomplice, Wildcat Capital, Telstra Ventures, and a founder of Great Hill Partners to the owners of the New England Patriots, Milwaukee Bucks, New York Mets, and Sacramento Kings.
-Who we're looking for:
-You're ready to take the next step in your Data Science career - to a fast-moving, successful company building out their world class player matching system! You're passionate about data and finding patterns and insights that others often overlook. You're looking to have a big impact on a small team. You're oozing with curiosity and want to find new and novel ways to leverage your current skill set. You're an excellent communicator and know that you grow faster from being able to mentor others.
-What You'll Do:
-Work on a platform level player matching system that impacts thousands of games
-Implement models for anomaly detection
-Plan and estimate research projects for the team on a weekly, monthly, and quarterly cadence
-Communicate your findings to a larger business audience
-Mentor more junior team members and be the voice of statistical rigor across the entire organization as your grow your leadership skills
-Simulate new algorithms with bots in a staging environment to understand the impact of your ideas before users see them
-Collaborate with other engineering teams to have your algorithms implemented in production
-Your Skillz:
-3+ years analyzing customer behavior
-3+ years programming experience (Python, R or any other relevant language)
-3+ years of relevant experience in building large scale machine learning or deep learning models and/or systems
-Excellent analytical and problem solving skills
-Experience building and training predictive models
-Excellent at breaking down complicated tasks and delegating the work to others while still ensuring quality
-Experience mentoring more junior team members
-Working knowledge of statistical mathematics
-Prior experience in statistical algorithm design
-Ability to produce ad-hoc reports using SQL
-Basic understanding of optimization methodologies
-Good understanding of A/B testing methodologies
-Bonus:
-PhD degree in computer science, engineering, or a related technical/scientific field
-Hands on experience building models with deep learning frameworks like MXNet, Tensorflow, Keras, Caffe, PyTorch, or similar
-Comfortable working in a fast paced, highly collaborative, dynamic work environment
-Prior experience in gaming
-Prior experience in finance
-</t>
-  </si>
-  <si>
-    <t>The Personalization Scientist joining the Personalized Communications team will be joining an established team of scientists within Nike's Global Decision Science Center of Excellence. This team is broadly responsible for building and deepening a holistic view of Nike's consumers through data and analytics and applying those insights to personalize and optimize incredible digital services and experiences for our consumers.
-The Personalized Communications team is responsible for developing and deploying algorithms that personalize every aspect of messages delivered through Nike's Communications Platform. This includes, but is not limited to, optimizing the journey, timing, channel, frequency, versioning of each message. Through these optimizations we will reduce friction enabling our members to more easily achieve their goals while deepening their relationship with Nike.
-A candidate should be experienced in state-of-the-art statistical modeling and/or machine learning algorithms for serving marketing messages and/or advertising content. These could include leveraging recurrent neural networks or various optimization techniques to select the best set of messages and benefits out of a library of possible options to send each member.
-We're looking for scientists who thrive in a dynamic setting. Communication and leadership skills are key. You'll get to work with scientists with a breadth of experiences across industry and academia, including in machine learning, statistics, neuroscience, and physics. You'll be expected to go deep and learn with them, as a peer and as a team.
-Key responsibilities will include:
- Developing a deep understanding of Nike's marketing and targeting strategies.
- Building and deploying modern targeting algorithms that optimize all aspects of communications (journey, timing, channel, frequency, versioning) for each member.
- Partnering with other data science teams to build and maintain the features required for optimization.
- Partnering closely with engineer and product teams to deploy algorithms into production.
- Delivering metrics, algorithms, and visualizations that allow stakeholders to assess the long-term impact of each message.
-Education
- B.S. in CS, statistics, applied math, physics, or other quantitative discipline
- Advanced degree (Masters or PhD) preferred
-Required Skills and Experience
- 2+ years of experience in a data science or machine learning engineering role
- Ability to understand, utilize, and innovate on state-of-the-art machine learning algorithms and/or statistical modeling.
- Experience developing production ML/Data Science models in Python.
- Experience leveraging big data and deploying models at scale, experience with Spark is a plus.
- Excellent communication and data visualization skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible for working on big data/analytics projects that gather and integrate large volumes of data, performs analysis, interprets results and develops actionable insights and recommendations for use across the company. Acquires data from multiple data sources in order to perform analysis. Identifies, analyzes and interprets trends or patterns in complex data in order to provide answers to business questions as well as provide recommendations for action. Interprets data and analyze results using various statistical techniques and tools. Presents data and analysis in a clear and concise manner allowing the audience to quickly understand the results and recommendations so they activate upon them and make data driven decisions. Collaborate with various partners to provide a holistic view of the analysis. Measures and monitors results of applied recommendations and present adjustments. Ensures all data acquisition, sharing and results of applied recommendations are compliant with company standards.
-Basic Qualifications
-Bachelor's degree in a quantitative field such as statistics, computer science, engineering or applied mathematics, or equivalent work experience
-Eight or more years of data science experience
-Preferred Skills/Experience
-Graduate Degree (MS, PhD) in Mathematics, Engineering, Computer Science or related field preferred.
-Extensive knowledge of Probability and Statistics.
-Proficiency with R, Python, and SQL programming languages, with knowledge of related data analysis libraries.
-Experience analyzing datasets within relational databases, Hadoop &amp; Spark.
-Experience in theory and practice with Machine Learning algorithms to design models related to classification, regression and clustering.
-Experience in theory and practice with Natural Language Processing methods to analyze documents and other unstructured text data sources.
-Experience in theory and practice of Deep Learning modelling, using software tools such as Tensorflow &amp; Keras, and Pytorch.
-Experience in the financial services industry.
-Excellent communication skills, ability to work with multiple teams, and strong work ethic.
-Work independently to drive results.SDL2017
-</t>
-  </si>
-  <si>
-    <t>Worker Sub-Type:Regular Job Description:
-THE POSITION
-BlackBerry Cylance is a cybersecurity company that uses artificial intelligence-based threat detection systems to protect industrial and governmental infrastructure from cyberattacks. We’ve patented and published dozens of state-of-the-art machine learning security techniques. We own one of the world’s richest cybersecurity data sets for model training, and our models are run on millions of endpoints as well as in the cloud.
-The Senior Machine Learning Engineer will work with a team of 20 scientists and engineers to build the machine learning infrastructure at the core of Cylance’s business model. Working extensively in Python and AWS, you will be responsible for writing well-tested, scalable code to automate the training and evaluation of models underlying all of Cylance’s security products. This position will partner with various engineering, product, and research groups to understand and define requirements and to deliver insights, so written and in-person communication skills are extremely important.
-WHAT YOU WILL DO
-Design, build, and maintain scalable, automated machine learning training systems in Python and Scala Design, build, and maintain analytics tools and services for use within our AWS cloud environment Communicate with internal teams and stakeholders to understand project requests and requirements Lead design and code reviewsRegularly contribute to documentation of our tools and services 
-WHO WE ARE LOOKING FOR
-Experience writing and debugging production Python code in a large, collaborative environment Experience writing and shipping distributed programs in Scala for Apache Spark Experience building and deploying supervised and unsupervised machine learning algorithms Solid theoretical understanding of machine learning algorithms, linear algebra, and statistics Experience automating solutions and writing code enabling faster iteration by the whole team Experience with software build and release processes, unit testing, version control, and tools Familiarity with standard project scheduling and documentation tools Excellent written and verbal communication Solid understanding of the *nix command line 
-ABOVE AND BEYOND
-Experience managing Apache Spark clusters Experience writing parallel Python code Experience using AWS (S3, EC2, ECS, ECR, Batch, Lambda, Data Pipeline, Step Functions) Experience building and using Docker containers Familiarity with components of microservices, e.g., configuring and launching web servers, REST APIs Experience creating data visualizations for reporting Proactivity in finding and reducing technical debt within large distributed code bases A desire to automate solutions and write code enabling faster iteration by the whole team 
-Benefits and Perks
-Highly collaborative environment Lots of knowledge sharing between the scientists and engineers in order to foster team members’ learning and career growth Excellent medical, dental &amp; vision benefits Commuter benefits Adjustable standing desks Company social and volunteer events Onsite fitness center (Irvine) Fantastic views of Orange County and the San Gabriel mountains (Irvine) Fantastic views of Mt Hood, Portland, and the Willamette River (Portland) Reimbursement for wellness activities Healthy snacks and some catered lunches 
-WHAT WE NEED FROM YOU TO APPLY
-Current resumeCover letter/summary expressing:
-Why you are interested in working at BlackBerry CylanceThe skills, strengths and expertise you will contribute to our diverse team of extraordinary talent and humble hearts
-#LI-TT1
-Job Family Group Name:Product DevelopmentScheduled Weekly Hours:40Apply Now: click  Apply Now</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OFFICE LOCATION
-  Burns, Oregon, USA
-OR503
-  YOUR POSITION WITH TNC
-  The Rangeland Scientist works as a member of a team in Eastern Oregon to advance conservation of shrub-steppe and other rangeland habitats and provides technical and scientific support for conservation initiatives. Works with other staff, public and private landowners, the USDA Agricultural Research Service and Oregon State University researchers and others to identify and implement projects that maintain shrub-steppe habitat across SE OR and maintains partnerships that may include people and organizations in other western states. Supervises staff and fosters a collaborative team approach both within The Nature Conservancy and externally with conservation scientists and agency professionals.
-ESSENTIAL FUNCTIONS
-Applied Science to Support Conservation, Restoration, and Policy (50%)
-The Rangeland Scientist convenes and works with colleagues and partners to develop and apply science tools and information to advance the Oregon Deserts Initiative and related rangeland conservation strategies. The Rangeland Scientist provides science leadership concerning semi-arid rangeland ecosystems in Oregon and within the Conservancy’s larger western Sagebrush Sea effort. The Rangeland Scientist serves as the lead science advisor to the Innovative Restoration project in the Sagebrush Sea program and the closely related Precision Restoration project within the Oregon TNC program. The Rangeland Scientist coordinates with conservation science partners at the Eastern Oregon Agricultural Research Center to develop and implement strategies to advance common goals. Conducts scientific surveys and research, records data, writes reports and develops proposals in order to develop, manage and oversee conservation projects within the Oregon business unit. The Rangeland Scientist will work with conservation and government relations staff and partners to develop and promote science-based rangeland policy that advances conservation objectives.
-Advancing Science (25%)
-The Rangeland Scientist will work both independently and with colleagues to advance conservation science in rangeland systems; developing new tools, testable strategies and approaches, and leading scientific inquiry and problem-solving related to conservation and restoration. Advancing science includes searching for alternative ways to approach and solve conservation problems.
-Communication (25%)
-The Rangeland Scientist will communicate scientific findings and syntheses and the scientific basis for conservation priorities and actions to the general public, partners, media, and the scientific community. The Rangeland Scientist will coordinate with conservation science partners at the Eastern Oregon Agricultural Research Center to develop and implement communication strategies advancing common objectives. Communication channels will include but are not limited to peer-reviewed literature, other published materials and maps, presentations at meetings and conferences, news media, and field tours. They will also work with other Conservancy departments including government relations, marketing, philanthropy, and volunteer programs to educate and inspire Oregonians on the importance of conservation.
-RESPONSIBILITIES &amp; SCOPE
-Working closely with the Eastern Oregon Conservation Director and other team members, develop adaptive management plans, conceptual models and design ecosystem conservation strategies seeking a variety of partners and input that achieves identified conservation outcomes. Develop, manage and oversee programs for the Oregon Chapter Deserts Initiative and rangeland strategies, collaborates with team and partners to draft project proposals to advance conservation strategies. Develop and manage the scientific evidence base to support rangeland conservation and restoration strategies across Oregon. Deliver high quality tools, biodiversity data, field services and trainings to staff and partners Design and implement experiments relative to program area. Supervise staff with a commitment to inclusivity, fostering the value of diverse perspectives and creating a psychologically safe team environment. Create, build, and maintain effective collaborations with academic, NGO, agency, tribal, and industry scientists in natural, physical, and social science disciplines. Coordinate fieldwork and logistical support for research, project development and monitoring. Develops work plans and project budgets. May manage a grant, contract or request for proposal. Coordinate with colleagues and partners across other western states. Makes independent decisions based on analysis, experience and judgment. Represents The Nature Conservancy in public forums. Tailors communications with partners, donors and supporters and general public via public presentations, social media, and one on one meetings - working closely with Chapter external affairs/marketing staff. Travels up to 20% domestically, evening and weekend hours occasionally Must work in variable weather conditions, at remote locations, in hazardous terrain and under physically demanding circumstances.
-MINIMUM QUALIFICATIONS
-Master's Degree in science related field and 2 years of experience or equivalent combination of education and experience. Experience managing staff, project, workloads and finances under deadlines. Experience with management and ecology of western rangeland habitats, and their associated ecological processes, especially fire, grazing and the effects of invasive species Experience synthesizing, interpreting and communicating scientific information. Experience preparing reports of findings. Record of peer reviewed publications in scientific journals. Experience working and communicating with a wide range of people. Experience with scientific application software.
-DESIRED QUALIFICATIONS
-Multi-language skills and multi-cultural or cross-cultural experience appreciated. 4 or more years related experience in developing and directing applied science (research, adaptive management, or related natural resources planning and implementation). Communicating clearly via written, spoken and graphical means in English and other relevant languages. PhD Degree in science related field Demonstrated experience with advanced quantitative and statistical analysis techniques Proven negotiation skills. Experience with Arc GIS, R or other analysis tools. Demonstrated ability to lead multi-disciplinary teams incorporating natural, physical, and social sciences.
-ADDITIONAL JOB INFORMATION
-Hiring range for this position is $65,000-$72,000 annually
-  AUTO SAFETY POLICY
-  This position requires a valid driver's license and compliance with the Conservancy's Auto Safety Program. Employees may not drive Conservancy-owned/leased vehicles, rental cars, or personal vehicles on behalf of the Conservancy if considered "high risk drivers." Please see further details in the Auto Safety Program document available at www.nature.org/careers.
-Employment in this position will be contingent upon completion of a Vehicle Use Agreement, which may include a review of the prospective employee's motor vehicle record.
-  HOW TO APPLY
-  To apply to position number 48240, submit resume (required) and cover letter separately using the upload buttons. All applications must be submitted in the system prior to 8:59 p.m. Pacific Time on December 30, 2019.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Job ID: JR0124302
-Job Category: Intern/Student
-Primary Location: Hillsboro, OR US
-Other Locations:Job Type: Intern
-Heterogeneous Platforms Research Scientist Intern
-Job DescriptionThis is a 3-month internship position in Intel's Heterogeneous Platforms Research Lab. Candidate will be contributing to Intel's multi-die integration research. Research activities include research and design of memory blocks, memory interfaces and IO circuits.
-The research will also involve die-package interface simulations with modeling of new die attachment technologies.
-Qualifications
-Qualifications
-Must possess the below minimum qualifications to be considered for this position. Experience listed below would be obtained through a combination of your school work/classes/research and/or relevant previous job and/or internship experiences.
-Minimum qualifications:
-Candidate must be pursuing a Ph.D. degree in Electrical Engineering.At least 6+ months of work or educational experience in the following areas:
-SRAM or Register File array circuits in deep sub-micron technologies
-Complementary Metal-Oxide Semiconductor (CMOS) chip design.
-Preferred qualifications:
-Experience in multi-die stacking.Experience with 3D integration technology, interface circuits and lab measurements.
-Inside this Business GroupIntel Labs is the company's world-class, industry leading research organization, responsible for driving Intel's technology pipeline and creating new opportunities. The mission of Intel Labs is to deliver breakthrough technologies to fuel Intel's growth. This includes identifying and exploring compelling new technologies and high risk opportunities ahead of business unit investment and demonstrating first-to-market technologies and innovative new usages for computing technology. Intel Labs engages the leading thinkers in academia and industry in addition to partnering closely with Intel business units.
-Posting Statement
-All qualified applicants will receive consideration for employment without regard to race, color, religion, religious creed, sex, national origin, ancestry, age, physical or mental disability, medical condition, genetic information, military and veteran status, marital status, pregnancy, gender, gender expression, gender identity, sexual orientation, or any other characteristic protected by local law, regulation, or ordinance....
-USInternJR0124302Hillsboro
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bayer is a global enterprise with core competencies in the Life Science fields of health care and agriculture. Its products and services are designed to benefit people and improve their quality of life. At Bayer you have the opportunity to be part of a culture where we value the passion of our employees to innovate and give them the power to change. Precision Genomics Scientist
-YOUR TASKS AND RESPONSIBILITIES
-The primary responsibilities of this role, Precision Genomics Scientist, are to:
-Providing technical contributions in a fast-paced team environment to accelerate our efforts on building an genomics-enabled R&amp;D pipeline;
-Independently perform statistical analysis, computer programming, predictive modeling and experimental design to establish and improve genome-wide genotyping solutions and maximize impact for downstream stakeholders;
-Designs, conducts &amp; interprets complex experiments;
-Develops and implements research and/or technology-driven proposals;
-Primary author for scientific reports;
-Effectively communicates research findings. May assume project leadership and/or supervisory functions;
-Build cross-functional relationships to collaboratively partner with the business and effectively network within the Data Science Community;
-Use advanced mathematical models, machine learning algorithms, operations research techniques, and strong business acumen to deliver insight, recommendations, and solutions.
-Contribute to the development of code, bioinformatic analyses pipelines, computational tools, and databases for mining and visualizing large genomic data sets;
-Present compelling, validated stories to all levels of organization, including peers, senior management, and internal customers to drive both strategic and operational changes in business;
-Conducts research and contributes to research projects, technologies, publications, intellectual property, or trade secrets. Leads genotyping and sequencing-related projects;
-Solves complex problems requiring original thinking and deductive reasoning and the application of scientific principles to the design and interpretation of scientific experiments;
-Uses specialized knowledge, the broad application of scientific principles and current literature to advance projects, experiments and/or process improvements.
-WHO YOU ARE
-Your success will be driven by your demonstration of our LIFE values. More specifically related to this position, Bayer seeks an incumbent who possesses the following:
-Required Qualifications:
-Bachelor’s degree with 5+ years of experience or Master’s degree with 2+ years’ experience or PhD. in statistics, genetics, bioinformatics, computational biology or related field of study;
-Expertise in molecular genetics methodology;
-Familiarity of basic molecular biological concepts;
-A solid foundation in statistical theory and strong interest in applied statistical analysis methodologies and proficiency with statistical programming and algorithm development;
-Proficiency with handling large datasets and minimal one scripting language (e.g. Python, R) and experienced with Linux and cloud-based environment and command line tools (e.g.. AWSK, BASH, SED);
-Outstanding verbal and written communication skills, with demonstrated ability to summarize complex concepts in language understandable by scientists from a variety of disciplines;
-Familiarity with population genetics and genomic selection is highly desired.
-Relocation may be offered for this role.
- YOUR APPLICATION Bayer offers a wide variety of competitive compensation and benefits programs. If you meet the requirements of this unique opportunity, and you have the "Passion to Innovate" and the "Power to Change", we encourage you to apply now. To all recruitment agencies: Bayer does not accept unsolicited third party resumes. Bayer is an Equal Opportunity Employer/Disabled/Veterans
- Bayer is committed to providing access and reasonable accommodations in its application process for individuals with disabilities and encourages applicants with disabilities to request any needed accommodation(s) using the contact information below. &lt;div&gt; Location: United States : Alabama : Birmingham || United States : Alabama : Centre || United States : Alabama : Huntsville || United States : Alabama : Loxley || United States : Alabama : Mobile || United States : Alabama : Piedmont || United States : Alabama : Residence Based || United States : Alaska : Anchorage || United States : Alaska : Residence Based || United States : Arizona : Casa Grande || United States : Arizona : Chandler || United States : Arizona : Eloy || United States : Arizona : Glendale || United States : Arizona : Maricopa || United States : Arizona : Peoria || United States : Arizona : Phoenix || United States : Arizona : Residence Based || United States : Arizona : Tucson || United States : Arkansas : Bentonville || United States : Arkansas : DeWitt || United States : Arkansas : Harrisburg || United States : Arkansas : Jonesboro || United States : Arkansas : Little Rock || United States : Arkansas : Marion || United States : Arkansas : North Little Rock || United States : Arkansas : Residence Based || United States : Arkansas : Rogers || United States : Arkansas : Stuttgart || United States : California : Acampo || United States : California : Anaheim || United States : California : Arroyo Grande || United States : California : Bakersfield || United States : California : Berkeley || United States : California : Burbank || United States : California : Coalinga || United States : California : Colusa || United States : California : Corona || United States : California : Davis || United States : California : El Centro || United States : California : Emeryville || United States : California : Escondido || United States : California : Esparto || United States : California : Fremont || United States : California : Fresno || United States : California : Huron || United States : California : Irvine || United States : California : Lancaster || United States : California : Long Beach || United States : California : Los Angeles || United States : California : Manteca || United States : California : Martinez || United States : California : Mcfarland || United States : California : Milpitas || United States : California : Modesto || United States : California : Mountain View || United States : California : Oakland || United States : California : Oxnard || United States : California : Palm Springs || United States : California : Residence Based || United States : California : Richmond || United States : California : Roseville || United States : California : Sacramento || United States : California : Salinas || United States : California : San Bernardino || United States : California : San Diego || United States : California : San Francisco || United States : California : San Jose || United States : California : San Juan Bautista || United States : California : San Ramon || United States : California : Santa Clarita || United States : California : Santa Rosa || United States : California : Shafter || United States : California : Simi Valley || United States : California : Sunnyvale || United States : California : Visalia || United States : California : West Sacramento || United States : California : Williams || United States : California : Woodland || United States : Colorado : Aurora || United States : Colorado : Boulder || United States : Colorado : Centennial || United States : Colorado : Denver || United States : Colorado : Englewood || United States : Colorado : Lakewood || United States : Colorado : Littleton || United States : Colorado : Longmont || United States : Colorado : Residence Based || United States : Connecticut : Berlin || United States : Connecticut : Bristol || United States : Connecticut : Hartford || United States : Connecticut : Mystic || United States : Connecticut : New Haven || United States : Connecticut : Residence Based || United States : Connecticut : Stamford || United States : Connecticut : West Haven || United States : Delaware : Dover || United States : Delaware : Residence Based || United States : Delaware : Wilmington || United States : District of Columbia : Residence Based || United States : District of Columbia : Washington || United States : Florida : Bradenton || United States : Florida : Cape Coral || United States : Florida : Daytona Beach || United States : Florida : Destin || United States : Florida : Felda || United States : Florida : Fort Lauderdale || United States : Florida : Ft Myers || United States : Florida : Gainesville || United States : Florida : Homestead || United States : Florida : Jacksonville || United States : Florida : Kissimmee || United States : Florida : Labelle || United States : Florida : Lakeland || United States : Florida : Miami || United States : Florida : Molino || United States : Florida : Naples || United States : Florida : Ocala || United States : Florida : Orange Park || United States : Florida : Orlando || United States : Florida : Pensacola || United States : Florida : Plant City || United States : Florida : Port St Lucie || United States : Florida : Residence Based || United States : Florida : St Petersburg || United States : Florida : Tampa || United States : Florida : West Palm Beach || United States : Georgia : Alpharetta || United States : Georgia : Atlanta || United States : Georgia : Augusta || United States : Georgia : Cartersville || United States : Georgia : Chatsworth || United States : Georgia : Columbus || United States : Georgia : Dawson || United States : Georgia : Duluth || United States : Georgia : Forest Park || United States : Georgia : Gainesville || United States : Georgia : Kennesaw || United States : Georgia : Lawrenceville || United States : Georgia : Leesburg || United States : Georgia : Macon || United States : Georgia : Marietta || United States : Georgia : North Atlanta || United States : Georgia : Peachtree City || United States : Georgia : Residence Based || United States : Georgia : Savannah || United States : Georgia : South Atlanta || United States : Georgia : Tifton || United States : Georgia : Tucker || United States : Georgia : Woodbine || United States : Hawaii : Haleiwa || United States : Hawaii : Honolulu || United States : Hawaii : Kalaheo || United States : Hawaii : Kapolei || United States : Hawaii : Kaunakakai || United States : Hawaii : Kaunakakai- Molokai || United States : Hawaii : Kihei || United States : Hawaii : Kunia || United States : Hawaii : Lahaina || United States : Hawaii : Residence Based || United States : Idaho : Boise || United States : Idaho : Filer || United States : Idaho : Nampa || United States : Idaho : Parma || United States : Idaho : Payette || United States : Idaho : Residence Based || United States : Idaho : Soda Springs || United States : Idaho : Williamsburg || United States : Illinois : Ashton || United States : Illinois : Bloomington || United States : Illinois : Calumet City || United States : Illinois : Centralia || United States : Illinois : Champaign || United States : Illinois : Chicago || United States : Illinois : Collinsville || United States : Illinois : Dekalb || United States : Illinois : Dwight || United States : Illinois : Effingham || United States : Illinois : Elgin || United States : Illinois : Elk Grove Village || United States : Illinois : Fairmount || United States : Illinois : Farmer City || United States : Illinois : Geneseo || United States : Illinois : Illiopolis || United States : Illinois : Jerseyville || United States : Illinois : Lexington || United States : Illinois : Mason City || United States : Illinois : Milford || United States : Illinois : Monmouth || United States : Illinois : Morton || United States : Illinois : Morton Grove || United States : Illinois : Moweaqua || United States : Illinois : Naperville || United States : Illinois : Niles || United States : Illinois : Oak Grove || United States : Illinois : Pleasant Plains || United States : Illinois : Residence Based || United States : Illinois : Rolling Meadows || United States : Illinois : Savoy || United States : Illinois : Skokie || United States : Illinois : Stonington || United States : Illinois : Thomasboro || United States : Illinois : Tremont || United States : Illinois : Tuscola || United States : Illinois : Ursa || United States : Illinois : Waterman || United States : Indiana : Brazil || United States : Indiana : Carmel || United States : Indiana : Cicero || United States : Indiana : Crawfordsville || United States : Indiana : Edison Lakes || United States : Indiana : Elkhart || United States : Indiana : Evansville || United States : Indiana : Fort Wayne || United States : Indiana : Franklin || United States : Indiana : Greensburg || United States : Indiana : Indianapolis || United States : Indiana : Kentland || United States : Indiana : Lafayette || United States : Indiana : Lebanon || United States : Indiana : Mishawaka || United States : Indiana : Monticello || United States : Indiana : New Castle || United States : Indiana : Oxford || United States : Indiana : Remington || United States : Indiana : Rensselaer || United States : Indiana : Residence Based || United States : Indiana : Reynolds || United States : Indiana : Tipton || United States : Indiana : Washington || United States : Indiana : West Lafayette || United States : Indiana : Whitestown || United States : Indiana : Windfall || United States : Iowa : Anamosa || United States : Iowa : Ankeny || United States : Iowa : Aplington || United States : Iowa : Atlantic || United States : Iowa : Beaman || United States : Iowa : Boone || United States : Iowa : Carroll || United States : Iowa : Cedar Falls || United States : Iowa : Cedar Rapids || United States : Iowa : Clarion || United States : Iowa : Des Moines || United States : Iowa : Dyke || United States : Iowa : Earlham || United States : Iowa : Grinnell || United States : Iowa : Harcourt || United States : Iowa : Harlan || United States : Iowa : Humboldt || United States : Iowa : Huxley || United States : Iowa : Independence || United States : Iowa : Muscatine || United States : Iowa : North Liberty || United States : Iowa : Oelwein || United States : Iowa : Pella || United States : Iowa : Perry || United States : Iowa : Residence Based || United States : Iowa : Spencer || United States : Iowa : Storm Lake || United States : Iowa : Urbandale || United States : Iowa : Williamsburg || United States : Kansas : Colwich || United States : Kansas : Kansas City || United States : Kansas : Kismet || United States : Kansas : Manhattan || United States : Kansas : Mt. Hope || United States : Kansas : Plains || United States : Kansas : Residence Based || United States : Kansas : Shawnee Mission || United States : Kansas : Stilwell || United States : Kansas : Topeka || United States : Kansas : Ulysses || United States : Kansas : Wichita || United States : Kentucky : Lexington || United States : Kentucky : Louisville || United States : Kentucky : Residence Based || United States : Louisiana : Baton Rouge || United States : Louisiana : Lafayette || United States : Louisiana : Luling || United States : Louisiana : New Orleans || United States : Louisiana : Residence Based || United States : Louisiana : Shreveport || United States : Maine : Portland || United States : Maine : Residence Based || United States : Maryland : Baltimore || United States : Maryland : College Park || United States : Maryland : Gaithersburg || United States : Maryland : Galena || United States : Maryland : Glen Burnie || United States : Maryland : Residence Based || United States : Maryland : Silver Spring || United States : Maryland : Towson || United States : Maryland : Waldorf || United States : Massachusetts : Boston || United States : Massachusetts : Bridgewater || United States : Massachusetts : Cambridge || United States : Massachusetts : Framingham || United States : Massachusetts : Norwood || United States : Massachusetts : Reading || United States : Massachusetts : Residence Based || United States : Massachusetts : Sheffield || United States : Massachusetts : Shrewsbury || United States : Massachusetts : South Deerfield || United States : Massachusetts : Springfield || United States : Michigan : Auburn Hills || United States : Michigan : Clinton Twp || United States : Michigan : Constantine || United States : Michigan : Flint || United States : Michigan : Grand Rapids || United States : Michigan : Kalamazoo || United States : Michigan : Madison Heights || United States : Michigan : Mason || United States : Michigan : Muskegon || United States : Michigan : North Detroit || United States : Michigan : Residence Based || United States : Michigan : Richland || United States : Michigan : South Bend || United States : Michigan : South Detroit || United States : Michigan : Ypsilanti || United States : Minnesota : Blaine || United States : Minnesota : Dassel || United States : Minnesota : Eagan || United States : Minnesota : Eden Prairie || United States : Minnesota : Glyndon || United States : Minnesota : Hutchinson || United States : Minnesota : Leland || United States : Minnesota : Mankato || United States : Minnesota : Mapleton || United States : Minnesota : Minneapolis || United States : Minnesota : Olivia || United States : Minnesota : Owatonna || United States : Minnesota : Redwood Falls || United States : Minnesota : Residence Based || United States : Minnesota : Rochester || United States : Minnesota : Sabin || United States : Minnesota : Shakopee || United States : Minnesota : St Paul || United States : Minnesota : Stanton || United States : Minnesota : Stoneville || United States : Mississippi : Biloxi || United States : Mississippi : Flora || United States : Mississippi : Hollandale || United States : Mississippi : Indianola || United States : Mississippi : Jackson || United States : Mississippi : Leland || United States : Mississippi : Residence Based || United States : Mississippi : Scott || United States : Mississippi : Southaven || United States : Mississippi : Stoneville || United States : Mississippi : Tupelo || United States : Mississippi : Winterville || United States : Missouri : Brookfield || United States : Missouri : Chesterfield || United States : Missouri : Creve Coeur || United States : Missouri : Hazelwood || United States : Missouri : Joplin || United States : Missouri : Kansas City || United States : Missouri : Liberty || United States : Missouri : Marshall || United States : Missouri : Matthews || United States : Missouri : New Haven || United States : Missouri : Owensville || United States : Missouri : Residence Based || United States : Missouri : Saint Joseph || United States : Missouri : Saint Louis || United States : Missouri : Sikeston || United States : Missouri : St. Louis || United States : Missouri : St.Louis || United States : Montana : Billings || United States : Montana : Bozeman || United States : Montana : Great Falls || United States : Montana : Residence Based || United States : Nebraska : Beaver Crossing || United States : Nebraska : Blair || United States : Nebraska : Fontenelle || United States : Nebraska : Gothenburg || United States : Nebraska : Grand Island || United States : Nebraska : Hastings || United States : Nebraska : Henderson || Unite</t>
-  </si>
-  <si>
-    <t>Salary&lt;/p&gt;$62,944.00 - $96,457.00 Annually&lt;/p&gt;&lt;/p&gt;Location&lt;/p&gt;Headquarters - 7200 NE Airport Way, OR&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;Job Type&lt;/p&gt;Full-Time Administrative&lt;/p&gt;&lt;/p&gt;Division&lt;/p&gt;Port Operations&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;Job Number&lt;/p&gt;01143&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;Closing&lt;/p&gt;12/13/2019 5:00 PM Pacific&lt;/p&gt;&lt;/p&gt;General Information
-Have you ever wondered what it's like to work at an airport? Been curious to know who ensures the effectiveness of critical airport security systems? If you enjoy using technology and analyzing data to research complex situations, create efficiencies, enhance system effectiveness, and ensure public safety and security, then we may have the opportunity you have been looking for!
-Portland International Airport (PDX) is a unique workplace with complex technical systems. Our Aviation Security Operations team ensures your safety and security by managing and monitoring access to the airport for thousands of employees, travelers, vendors and contractors. If you are a detailed-oriented person with strong analytical and systemic thinking skills who thrives in a busy, dynamic work environment, the Port of Portland/PDX could be the workplace you've never considered but always wanted to be.
-The Port of Portland is currently seeking a Security Operations Data Analyst to join our team. To see how your skill set matches the competencies and characteristics we look for in employees, keep reading below.Summary of Essential Responsibilities
- Manage and monitor the functionality of PDX access control systems.
- Ensure access control systems are in compliance with the Airport Security Program, TSA regulations and Port policy.  
- Manage access for all PDX badge holders and maintain database to monitor access assignments and produce reports.  Research and respond to inquiries regarding access to PDX in a timely manner.  Provide accurate information and excellent customer service when responding to inquiries.  Administer and support Aviation Security analytical tools and internal databases (e.g.,Tableau, Microsoft Office, and SharePoint systems etc) that support business decisions.  Conduct and present analysis of Aviation Security data including associated risks to high-level stakeholders, including government, industry and Port leadership.  Lead complex tasks and short and long-term projects for the Aviation Security Department.
- Research, analyze and summarize access control data involving high risk projects.  Provide accurate information and analytical support to Port projects and project teams.  
- Make critical decisions affecting airport security acting as alternate PDX Airport Security Coordinator with 24/7 on-call duties and responsibilities.  Monitor and track trends in security incidents.  Create and administer education and outreach programs for badge holders and tenants to enhance airport security and mitigate future security violations.
-Minimum Requirements
- Bachelor's degree in aviation, security, public administration or a related field.  Five (5) years of experience in data analysis, aviation security, or airport operations;  or the equivalent combination of education and/or relevant experience  .  Valid Oregon or Washington Driver license is required  within 6 months of hire  .  Ability to obtain and maintain security clearance for unescorted access to secure areas of facilities is required.  Working knowledge of aviation security and airport operations directives (e.g., TSA issued national amendments and security directives and 49 CFR 1520, 1542, 1544, 1546.  Advanced knowledge of the following is required:
- Data collection; analysis and interpretation.  Applicable federal; state and local regulations.  
- AAAE ACE certification at time of hire is desirable  .
-  Ability to obtain certification within six (6) months of hire is required.   
- SQL experience is desirable.  GIS experience is desirable.  Knowledge of current Access Control and Identity Management software systems and capabilities.
-Skills and Abilities
- Strong analytical, diagnostic, conceptual, and systematic thinking skills.  Advanced skill level in the use of current spreadsheet and presentation software.  A thorough understanding of aviation security operations, airport operations, and local, state and federal aviation security regulations.  Excellent verbal and written communication skills.  Ability to handle information with appropriate levels of security and confidentiality.  Willingness to be an active participant in projects by providing an aviation security perspective to business processes.  Champion safety as a guiding principle to accomplish work and continuously improve operational excellence.  Demonstrated ability to show the utmost respect for others and is a proven team player.  Ability to:
- Analyze highly complex technical data and recommend defensible course of action.  Make recommendations about system functionality.  Provide exemplary customer service to internal and external stakeholders.  Manage and prioritize complex tasks with little supervision.
- Identify alternatives to achieve desired outcomes.  
- Lead work teams and provide effective feedback.  Effectively communicate with airport tenants, industry professionals. airlines and other government agencies.  Demonstrate commitment to valuing differences among individuals and a passion for being inclusive.  
-&lt;/p&gt;The Port of Portland offers a competitive benefits package including medical, dental, vision, employer paid life and AD&amp;D insurance, short-term and long-term disability, and participates in the Oregon PERS retirement program. The Port also offers employee paid voluntary benefits such as flexible spending accounts, voluntary life insurance, a deferred compensation program and for some employees access to critical illness and accident insurance policies. In addition to our comprehensive benefit program, we have generous vacation and sick leave plans and we are known for our great culture, flexibility and our commitment to wellness.
- Please note:  some benefits vary by job type/group, so please be sure to review your comprehensive benefit guide upon hire to confirm what is available to you.&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Job DescriptionAt Wells Fargo, we want to satisfy our customers financial needs and help them succeed financially. Were looking for talented people who will put our customers at the center of everything we do. Join our diverse and inclusive team where youll feel valued and inspired to contribute your unique skills and experience.
-Help us build a better Wells Fargo. It all begins with outstanding talent. It all begins with you.
-Corporate Risk helps all Wells Fargo businesses identify and manage risk. The team focuses on several key risk types, including conduct, credit, financial crimes, information security, interest rate, liquidity, market, model, operational, regulatory compliance, reputation, strategic, and technology risk.
-The group provides leadership, enhances communications, assists with problem identification and solutions, and shares best practices. In addition, the group provides an enterprise-wide view of risk, assists management and our Board of Directors in identifying and monitoring risks that may affect multiple lines of business, and takes appropriate action when business activities exceed the risk tolerance of the company.
-Corporate Model Risk: Wells Fargos Corporate Model Risk is responsible for independently overseeing the management of model risk exposures across the enterprise (including governing, monitoring, and reporting on aggregate model risk exposures, model validations, and model oversight across the enterprise). This oversight extends to all phases of a models life cycle, including identification, development, validation, implementation, finding resolution, usage, performance monitoring, documentation, and retirement.
-Qualitative Model Validation: The Qualitative Model Validation group is responsible for validating and approving all qualitative models used across Wells Fargo including Credit, Liquidity, Market, Operational, Pre-Provision Net Revenue (PPNR), Finance, Balance Sheet, and Financial Crimes to name a few. The teams responsibilities include performing model validations (independent reviews, writing validation reports, and approving model usage), annual reviews, performance monitoring, and issue management. The team works closely with model users, developers, model governance, and Corporate Functional Model Oversight (CFMO) teams to manage model risk to the firm and facilitate the model approval process.
-The Role: The Qualitative Model Validator responsible for the quality, and completion of model validation to support business activities in areas of Retail Credit Risk, including Stress Testing (DFAST/CCAR) and Resolution Planning as applicable. Specifically this individual will have responsibility to:
-Execute the Validation processes for his/her area of specialty in accordance to applicable Policies, in particular:
-Ensure credible challenge of models through validation process. Evaluate all relevant components of models and assess model soundness across lifecycle as applicable Identify areas of weakness and work with Model Owners, CFMO, and other key stakeholders to ensure risk commensurate remediation, Ensure timely validation delivery Establish reporting and escalation protocols of review results and follow up on identified issues/observations. Continually work to improve consistency and quality of independent model validation Ensure all models within scope are independently validated per expected standards and schedule. Build and maintain effective working relationships with LOB Model Governance, Model Owners, Model Program team members, and CFMOs across Wells Fargo. Understand model risk supervisory guidance, Model Risk Management Policy, and current industry best-practices
-This leader will have substantial experience in the areas of retail credit risk and modeling to facilitate credible challenge of the processes/models and to develop the skills of the validation team. Successful candidates will be articulate and capable of building collaborative working environments including leading process improvement projects.Required Qualifications
-7+ years of risk reporting experience, risk analytics experience, or a combination of both3+ years of leadership experience
-&lt;/p&gt;
-Desired Qualifications
-Knowledge and understanding of technology testing: design and codingStrong analytical skills and ability to solve complex technical problemsStrong analytical skills with high attention to detail and accuracyAbility to motivate staff to prioritize work, meet deadlines, achieve goals, and work under pressure in a dynamic and complex environmentAbility to work and influence successfully within a matrix environment and build effective business partnerships with all levels of team membersExcellent verbal, written, and interpersonal communication skillsKnowledge and understanding of regulatory compliance requirements surrounding BASEL, Risk Appetite and stress testing
-&lt;/p&gt;
-Other Desired Qualifications
-Proficiency managing databases, spreadsheets, and programming (understanding code and coding). Understanding of consumer (retail) credit risk products/structures and key drivers Experience in producing work of highest quality within tight timelines, as well as creating, maintaining, and supporting processes subject to intense regulatory scrutiny Expertise in processes related to Basel, allowance, business loss, and CCAR/ stress test loss forecasting Development of credit retail or wholesale strategies across credit lifecycle Experience with loss forecasting associated models and processes (e.g., construction, testing, and implementation), especially in credit loan loss processes in the financial industry. Experience with Credit metrics of risk: Debt coverage, financial metrics, FICO, LTV, Credit Scores, etc. Credit risk tool development or validation experience, especially in areas related to Basel, allowance, and stress testing
-Job Expectations
-Ability to travel up to 5% of the time
-&lt;/p&gt;
-DisclaimerAll offers for employment with Wells Fargo are contingent upon the candidate having successfully completed a criminal background check. Wells Fargo will consider qualified candidates with criminal histories in a manner consistent with the requirements of applicable local, state and Federal law, including Section 19 of the Federal Deposit Insurance Act.
-&lt;/br&gt;
-&lt;/br&gt;Relevant military experience is considered for veterans and transitioning service men and women.
-&lt;/br&gt;Wells Fargo is an Affirmative Action and Equal Opportunity Employer, Minority/Female/Disabled/Veteran/Gender Identity/Sexual Orientation.To apply to this job, click  Apply Now</t>
-  </si>
-  <si>
-    <t>This is an exciting opportunity to become a part of our clinical immunohistochemistry team in Portland, OR!
-Overview of the Role:
-The Senior Scientist is responsible for designing, developing and validating clinical immunohistochemistry and in situ hybridization assays on automated staining platforms and transfer of validated assays to the clinical laboratory. In this role, the Senior Scientist Advanced will author and/or review assay development plans, project reports, procedures, and other assay-related documentation and independently execute experiments according to project plans. The Senior Scientist-Advanced Tissue Diagnostics will also evaluate new methods and platforms, including digital imaging.
-The role actively supports corporate growth and revenue initiatives by directly collaborating with
-Scientific Affairs and Business Development personnel and participates in client interactions as needed.
-The position requires ability to professionally communicate with pharma and biotech clients regarding the technical requirements and clinical biomarker applications of the assay. The position also requires ability to articulate a compelling value proposition to clients that supports securing new contracts
-Benefits of working at ICON:
-We will provide our Senior Scientists' with the resources to be successful in supporting their line of business. In addition, we offer a strong benefits package that includes a comprehensive health plan, retirement plans, competitive pay, vacation, and an annual incentive plan to reward performance.
-To succeed you will need:
-PhD or Master's degree in Life Sciences, Molecular or Cell Biology, Biochemistry, or related scientific discipline. Minimum 5 years of work experience related to oncology biomarker research and histopathology assay development and/or diagnostic assay development. Experience working within a quality.
-We invite you to review our opportunities at www.iconplc.com/careers.
-What's Next?
-Following your application you will be contacted by one of our dedicated recruiters and if successful we will be able to provide you with more details about this opportunity.
-ICON is an equal opportunity employer - Minorities/Females/Disabled/Veterans and committed to providing a workplace free of any discrimination or harassment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSITION PURPOSE
-As a member of the Decision Support Team, you will have the opportunity to apply your analytical and problem solving skills gathering and summarizing statistical data into meaningful and actionable reports. Utilizing a variety of software platforms the Decision Support Specialist assists in the preparation and development of robust reporting for the Umpqua Health leadership team, managers and other organizational stakeholders. Under management directive, this individual may evaluate reports and make recommendations which impact business decisions. Position will support the Senior Director of Decision Support and Budgeting.
-ESSENTIAL JOB RESPONSIBILITIES:
-Run queries and create analysis utilizing all data warehouse systems.Provide ad hoc financial and operational reporting to finance, clinical and executive staff.Perform complex financial analysis related to special projects.Perform routine and ad hoc audits of health plan claims database.Provide analytical reports for the Data Steering committee and other committees as requested.Maintain and update databases and reports used as reference for internal staff.Respond and resolve data inquiries on select subject matters in a timely manner.Compile, organize and analyze data from various sources to serve as research initiatives financial data.Develop and provide complex reporting and analysis on revenue and health plan claims data.Track population and health trends for purposes of identifying target areas of utilization and case management.Oversight of metrics components related to healthcare claims processing that fall outside normal claims guidelines.Assist data extracts and validation for the purposes of state mandated reporting requirements.Document processes for preparing any monthly or routine reporting.Create tools, spreadsheets and systems to improve financial data analysis and reporting.Provide administrative and operational support to the Senior Director of Decision Support and Budgeting.Comply with organization’s internal policies and procedures, Code of Conduct, Compliance Plan, along with applicable Federal, State, and local regulations.Other duties as assigned.
-KNOWLEDGE/SKILLS/EXPERIENCE REQUIRED:
-Bachelor’s degree in business administration, mathematics, statistics, computer science or finance is preferred.Excellent skills in MS office and ability to use all functions of excel.Excellent verbal and written communication skills as well as, outstanding problem solving, organizational and leadership skills.Proven strong project management, multi-tasking and presentation skills.Familiarity with report analysis, and experience working in a finance department preferred.Minimum of 1-3 years of experience in business and financial analytics, health care experience preferred but not required. .Experience with Oregon Health Plan preferred.
-</t>
-  </si>
-  <si>
-    <t>Imagine...working for a company that knows that its people are the key to its success in the marketplace. A company in which achieving extraordinary results and having a stimulating work experience are part of the same process.
-We cultivate and embrace a diverse employee population. We recognize that people with diverse backgrounds, experiences and perspectives fuel our growth and enrich our global culture.
-We are looking for an individual who enjoys working in a fast-paced, team oriented environment, likes to be challenged, and values the opportunity to make a difference.
-General Summary:
-This position is in the Soup/ Broth Product Development team. It includes responsibilities for current portfolio and innovation. The individual will be responsible for development of new soup/broth product designs for Pacific Foods from concept to commercialization of base innovation, renovation, cost optimization and quality initiatives. The individual will work with supervision to design and execute identified projects. The individual must possess a strong knowledge of technical principles, product commercialization processes and be able to apply that knowledge towards designing new products or reformulating existing products.
-Primary Accountabilities:
-Work with technical and business teams to identify and define product concepts and establish project objectives.Demonstrate organizational and planning skills. Help in the development and execution of project timelines, which includes contingency planning.Leverage vendor capabilities, where appropriate, to expand formulation possibilities, research new ingredients, product technologies and/or increase speed to market. Work with vendors to research new ingredients, product technologies, and/or processes to develop unique and innovative products.Develop prototypes to support concept and ideation exploratory work. Reformulate based upon consumer direction.Formulate products for scale-up. Conduct trials in the Pilot plant or manufacturing facilities to assess manufacturing capability and consumer acceptability.Interface product design with various nutritional guidelines, and cost constraints.Extensive knowledge of ingredients and food systems.Work with Process Development and Supply Chain to identify internal or external manufacture needsDemonstrate flexibility and agility to react rapidly to change in project scope.Ability to work with support groups and functions effectively in a team environment.Good problem solving skills. With guidance determine the root cause problem and execute effectively on solutions.Develop awareness of industry developments and pursue ingredient, product, or technology advances for application to new and innovative product initiatives.  
-Job Complexity:
-Must be able to adapt quickly to changes in product scope as new information/ data is obtained from consumer testing. The individual must be able to deal with ambiguity, adapt to change and persevere. It also requires the ability to identify critical path items and risks, and effectively communicate these to both the business team and management.This individual must be able to: 1) work closely with Purchasing on ingredient supply &amp; costing, 2) work closely with PR&amp;D, Engineering and Operations to identify, define and commission new ingredient handling and/or blending equipment, and 3) leverage internal and external expertise in resolving technical challenges.Projects may include working with co-packers, which will require effective communication skills and the ability to quickly adapt CSC formulas to their equipment/systems.
-Utilizes regulatory and nutritional guidance provided to the organization for all product development activities.
-Knowledge, skills, abilities, and minimum requirements:
-Bachelor of Science degree in Food Science or related field, with a minimum of 2 years of experience OR Masters degree in Food Science or related field with 0 years of experienceDemonstrated skills in commercializing products/processes in the manufacturing environment is desired.Knowledge of consumer testing methodologies.Knowledge of experimental design.Ability to work with ambiguity and seek creative solutionsHighly effective team player, willing to contribute in a wide variety of area.Strong planning and organizing skills.Good oral and written communications as well as presentation skills are required.Computer skills including: basic fluency in Microsoft Office, database and internet tools.Ability to walk or stand up for three-quarters of the work day. Physical ability to lift weight of approximately 30 lbs.Estimated travel: up to 30% to manufacturing facilities and outside vendors
-Working conditions:
-Work is performed during the day in a lab or production environment and involves the use of office equipment, such as computers and telephones. Some overtime may be required. The position is based in Tualatin, Oregon, requiring regular contact and linkage with Global R&amp;D Leadership and functional experts at CSC World Headquarters in Camden, New Jersey, and frequent on-site presence at the Pacific manufacturing plants, CSC thermal plants and contract manufacturing locations for the purpose of communication of expectations, gathering of feedback and making relevant observations/identification of opportunities.
-The Company is committed to providing equal opportunity for employees and applicants in all aspects of the employment relationship, without regard to race, color, sex, sexual orientation, gender identity, national origin, citizenship, marital status, veteran status, disability, age, religion or any other classification protected by law.
-In that regard, U.S. applicants and employees are protected from discrimination based on certain categories protected by Federal law. Click here for additional information.</t>
-  </si>
-  <si>
-    <t>Worker Sub-Type:
-Regular
-Job Description:
-THE POSITION
-We're looking for a Data Scientist to join the Cylance Data Science team. At Cylance, we develop state-of-the-art machine learning techniques to solve long-standing problems in computer security. We discover novel ML techniques and applications, build systems to handle petabytes of ludicrously high dimensional data, and protect people from bad guys.
-With machine learning at the heart of all of Cylance's products, the Data Science team is a critical, highly visible, and high-impact team within the company. The team brings together experts from machine learning, stats, computer science, computer security, and various applied sciences, with backgrounds including deep learning, Bayesian statistics, time-series modeling, topology, scalable data processing, and software engineering.
-You don't need prior experience in security, although it helps. The right candidate will be able to gain domain expertise on the job, surrounded by some of the computer security industry's leading minds.
-WHAT YOU WILL DO
-Invent novel machine learning techniques to solve important problems in computer security.
-Improve upon existing machine learning techniques used within Cylance.
-Write code that scales to very large datasets, often with millions of dimensions.
-Discover ways to strengthen machine learning models against adversarial attacks.
-Collaborate closely with internal product and engineering teams to help turn ML research prototypes into new products or features.
-Publish papers and present research at conferences, including ML/AI/Stats conferences, as well as security conferences like Black Hat, DEFCON, and RSA.
-Stay abreast of the latest publications and state-of-the-art techniques in relevant research communities (e.g., ML and stats).
-Consult with other teams within Cylance on applications of data science.
-Collaborate with other data scientists on the team to help accomplish all of the above.
-WHO WE ARE LOOKING FOR
-Extensive knowledge of machine learning fundamentals. You don't just blindly call fit() in sklearn; you have a deep understanding of how many common ML algorithms work and are able to explain why they work the way they do.
-Strong math skills in general, especially linear algebra and statistics.
-Intermediate experience with python, at least to the point that you're able to implement common machine learning algorithms without much trouble.
-A Master's degree or PhD in a relevant area can be substituted for equivalent years of experience.
-TECHNOLOGIES WE USE
-Python, and libraries like sklearn, numpy, scipy, pytorch, and tensorflow.
-Various other languages, including Scala, C/C++, C#, Java, and x86 assembly.
-Git
-Spark
-Various AWS services, like EC2 and S3.
-ABOVE AND BEYOND
-Excellent communication skills. You can clearly convey your ideas to others in speech and in writing.
-Kindness, and a deep willingness to help and collaborate with others.
-Five years minimum related experience with machine learning, computer science, and/or statistics.
-Experience within Cyber Security
-WHAT WE NEED FROM YOU TO APPLY
-Current resume
-Cover letter/summary expressing:
-Why you are interested in working at Blackberry Cylance OR Blackberry
-The skills, strengths and expertise you will contribute to our diverse team of extraordinary talent and humble hearts
-Job Family Group Name:
-Product Development
-Scheduled Weekly Hours:
-40SDL2017</t>
-  </si>
-  <si>
-    <t>As part of the Business Intelligence &amp; Advanced Analysts (BIAA) division of ITG, this position is responsible for supporting reporting and analytics for the University Medical Group (UMG) provider billing organization. The person in this position will interact directly with key business staff to understand key initiatives and how data can be used as strategic asset in support of the business.The business intelligence analyst will take requests for new reports and, through collaboration with the requestor and guidance from team members, will identify and document the detailed requirements. The analyst will design and develop a reporting solution that meets the customer requirements and also complies with UMG and BIAA standards. It is expected that the analyst has a working knowledge of Epic Systems revenue cycle workflows and is familiar with the Epic Clarity data structures. Skills and activities required include: an understanding of data warehousing and a working knowledge of SQL and at development experience in at least one relevant reporting tool such as: Cognos, Crystal, Business Objects Webi, or Epic Reporting Workbench. The analyst should also have at least a conceptual understanding of all phases of a system development lifecycle and data analysis. The Entry level Systems/Application Analyst, will (1) Work with Epic Resolute revenue cycle users and UMG analytics staff to develop report requirements and specifications. (2) Design, development and implement financial reporting solutions to support the OHSU Health mission. (3) Collaborate with BIAA to design data warehouse solutions to support the reporting needs. (4) Collaborate with the Revenue Cycle Reporting users to develop and execute test cases and record results and incidents in testing logs (5) Fix incidents and implement the reporting solutions into production. (6) Participate in supporting training of users in the use of reporting tools.Education:Bachelor’s degree in computer science, a related field, or a clinical field and one year work related experience in the information technology field or a combination of clinical or operational healthcare environments; OR Associate’s degree in computer science, a related field, or a clinical field and two years work related experience in the information technology field or a combination of clinical or operational healthcare environments; OR Three years work related experience in the information technology field or a combination of clinical or operational healthcare environments; OR Equivalent combination of education and experience where one year of experience will be substituted for an Associate’s degree and two years of experience will be substituted for a Bachelor’s degree.Experience:Prior work as a reporting, software development, data or business intelligence analyst, where responsibilities included: Interfacing directly with business staff Experience gathering and documenting business requirements and planning and managing projects Experience creating technical documentation of reports and data/report models Providing recommendations on appropriate use of data Identify gaps or data quality issuesJob Related Knowledge, Skills, and Abilities: Proven communication, analytical, and problem solving skills Experience using relational databases as a source for reporting Ability to read and explain a relational data models Ability to read, write and maintain SQL code Experience gathering and documenting business requirements Experience using report authoring tools such as MS Excel, SAP Crystal Reports, IBM Cognos Report Studio, Tableau, MS PowerBIRegistrations, Certifications and/or Licenses: Epic Clarity, Reporting Workbench and Radar certifications as assigned within 9 months of hire.Oregon Health &amp; Science University values a diverse and culturally competent workforce. We are proud of our commitment to being an equal opportunity, affirmative action organization that does not discriminate against applicants on the basis of any protected class status, including disability status and protected veteran status. Individuals with diverse backgrounds and those who promote diversity and a culture of inclusion are encouraged to apply. To request reasonable accommodation contact the Affirmative Action and Equal Opportunity Department at 503-494-5148 or aaeo@ohsu.edu.</t>
-  </si>
-  <si>
-    <t>Job DescriptionTitle: Data Analyst
-Job #: 5588-1
-Location: Beaverton, OR
-Job Length: Multi-year opportunity
-Essential Duties and Responsibilities:
-This is an outstanding opportunity to work in a well-respected market leader, located near Washington Square Mall in Beaverton.
-The Production Data Analyst (DA) develops database queries, scripts, tools, and methods to manage data according to client requirements, within defined technical standards, and within time constraints. Emphasis is on ETL procedures. The DA is proficient with relational database concepts and practices, is able to evaluate and write complex SQL queries, and can create and maintain common database objects such as views, stored procedures, and user-defined functions. The DA should be familiar with and able to utilize code management and/or revision control tools and follow standard software development practices. The majority of time is spent developing and refining ETL processes, writing update queries, and writing ad-hoc queries on behalf of clients and stakeholders.
-Job Responsibilities
-Develop and maintain ETL procedures according to client specifications and within defined technical standards.Develop and maintain database stored procedures, user-defined functions, views, triggers and other common database objects.Write custom and ad-hoc SQL queries and update queries.Follow prescribed software development standards, processes, procedures, methodologies, etc., according to departmental policies and conventions.Interact and correspond professionally with team members, project management, clients, and other stakeholders.Account for and accurately log time against project work.
-Required Skills:
-BS Computer Science or related discipline, or equivalent industry experience.2+ years hands-on experience with MS SQL Server, 2008 R2 or higher, as a developer or DBA.Strong SQL skills, able to create and to evaluate complex SQL statements involving numerous tables and complex relationships.Ability to work in an environment with deadlines and shifting priorities.Basic understanding of and experience with query performance tuning.Experience developing and maintaining ETL procedures.Experience with SSIS preferred.Experience or familiarity with C# or Visual Basic is a plusAbility to communicate effectively, both verbally and in writing; able to adjust for intended audience. Fluency in English.
-THIS POSITION IS OPEN TO W-2 CANDIDATES ONLY. NO THIRD PARTIES PLEASE.
-Pre-Employment Requirement:
-All employment offers are contingent upon successful completion of our pre-employment screening that may include drug testing, background/criminal check, and if applicable, must meet eligibility requirements for access to classified information.Company DescriptionAPR Staffing was born from the merging of two well-respected staffing firms in Portland. ieSolutions, founded in 2002, has a long history as one of the largest locally owned technical staffing companies. Professional Resource Group, aka Data Resource Group, founded in 2009, also earned wide-spread acclaim for being a fast-growing and highly motivated professional staffing agency. Both companies have been recent award winners for the Portland Business Journal's Fastest Growing Private Companies. The two firms, now as APR Staffing, make for one of the fastest growing and most respected professional staffing companies in Oregon and Southwest Washington.
-Collaborating with our customers, we augment their workforce with technical and administrative talent. We provide information technology, engineering, operation, technician, analyst, project management and administrative talent to our clients through out the Pacific Northwest.
-APR Staffing is an equal opportunity employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, age, sexual orientation, gender identity, national origin, disability, protected veteran status, or any other characteristic protected by law.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Job ID :106459BR
-Location :US - Oregon - Eugene
- :Job DescriptionJob Title: Scientist I, Production (Particles)
-Requisition ID: 106459BR
-When you’re part of the team at Thermo Fisher Scientific, you’ll do important work, like helping customers in finding cures for cancer, protecting the environment or making sure our food is safe. Your work will have real-world impact, and you’ll be supported in achieving your career goals.
-Location/Division Specific Information
-Eugene, OR
-How will you make an impact?
-The Scientist I will work in a manufacturing environment and is responsible for performing particle/polymer synthesis and modification while following quality and safety standards. Will understand and follow written procedures, and is technically capable of performing production processes.
-What will you do?
-Produce and analyze particle/polymer based products to meet customer requirements and timelinesMaintain accurate inventory of materials using advanced ERP controlsAnalyze and interpret scientific data. Utilize specialized technical knowledge or skills necessaryMaintain professional communication with representatives from other departments and teams as requiredActively participate in team activities (conflict resolution, team building, scheduling)Work to achieve department goals and business objectives with respect to quality, on-time completion of work, and safetyEnsure adherence to quality standards, including good documentation practices
-How will you get here?
-BS/BA Degree in Chemistry or related disciplineExcellent communication skills (written/verbal), demonstrated team leadership and management skillsMotivated, flexible, able to follow through, and able to focus in a fast pace environmentOrganized, detail oriented, and proactiveExperience in a technical manufacturing environmentExperienced with Microsoft Applications; Word, Excel, PowerPoint
-Knowledge, Skills, Abilities
-Excellent time management, and ability to work independentlyStrong organizational skills, (evaluating and handling priorities effectively)Strong verbal and written communication skillsExperience with pipetting, UV-Vis spectroscopy, distillation, centrifugation
-At Thermo Fisher Scientific, each one of our 70,000 extraordinary minds has a unique story to tell. Join us and contribute to our singular mission—enabling our customers to make the world healthier, cleaner and safer.
-Apply today! http://jobs.thermofisher.com
-Thermo Fisher Scientific is an EEO/Affirmative Action Employer and does not discriminate on the basis of race, color, religion, sex, sexual orientation, gender identity, national origin, protected veteran status, disability or any other legally protected status.If you are an individual with a disability who requires reasonable accommodation to complete any part of our application process, click here for further assistance.Thermo Fisher Scientific is an EEO/Affirmative Action Employer and does not discriminate on the basis of race, color, religion, sex, sexual orientation, gender identity, national origin, protected veteran status, disability or any other legally protected status.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are looking for a data leader who is startup and team oriented and able to work within an ambiguous and fast changing environment. You?re able to prioritize tasks and proactively communicate with multiple stakeholders. You posses statistical knowledge and computer skills that are needed for solving complex problems.
-Who You?ll Work With
-You?ll be the center of analytics leadership. You?ll work with the business leadership to establish analytics based KPIs and set the foundation for analytics platforms, tools and processes. You?ll interface with marketing teams to help the understand the effectiveness of their advertising. You?ll work with the product team to study, suggest and track product performance and data. You?ll work with developers to ensure that data is tagged, organized and flows through our analytics systems properly. You?ll interface with the growth and data teams to share data, mine insights and establish best practices.
-We are a small and nimble team, united by a culture of learning and rapid experimentation. We move quickly and leverage real-time data and insights to inform our business and design decisions. We actively listen to stakeholders, seek out qualitative and quantitative feedback, and focus our efforts on designing solutions to solve pain points and surprise and delight our members.
-What Your Responsibilities Will Be
-Establishes, refines and leads data analytics strategy and platforms, including core metrics identification and ownership.
-Data modeling and proactive analysis for business, product, marketing, merchandising and retention teams.
-Track and report digital media campaigns from strategy and execution to analysis.
-Track retention, churn, cohort analysis and LTV metrics and mine them for insight.
-Advocates for the data within strategy discussions and helps team to refine research questions.
-Create automation and self-reporting interfaces of data and insights.
-Requirements for The Role
-Data validation and consultation experience with engineering to ensure data is flowing through analytics platforms properly.
-Experience with analytics tools and platforms data engineering and collection
-Experience with experimentation and A/B testing methodology.
-Experience with configuring and using Tableau for data analytics.
-Experience with configuring conversion tracking and data analytics tools for paid advertising platforms.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITIES:Kforce has a client in search of a Data Analyst in Clackamas, Oregon (OR).
-Essential Functions:
-Data Maintenance:
-Conduct day to day troubleshooting of systems that support the operation, including but not limited to; Enterprise Resource Planning (ERP), Business Intelligence Tools and similar applications
-Resolves and/or reports data integrity issues, reports and track system errors, conducts user acceptance testing
-Understands physical configuration and how to apply systems thinking to resolve issues. Identify downstream effects caused by data integrity issues, user error, and recommend process improvements; Provides reporting support from within the supply chain applications
-Customer Service: Provide customer focused service whether in person, via phone or email; Requires a detailed understanding of internal and customer processes and ability communicate solutions in a manner that both educates and resolves the issue
-Technical Support: Create job aids and procedures, provide details system instructions to others to increase understanding and reduce errors, provide documentation for processes; Work directly with customers to identify problems, test solutions, and monitor effectiveness
-Coordination of Services: Act as liaison for customer to coordinate the delivery of the product needed by interfacing with Customers within and outside of Supply Chain to satisfy the need; Perform tasks needed to facilitate solution, including but not limited to: respective job workbench, item master updates, recall processing, PAR changes, reporting, resolve stat requests, cycle counts, record destruction, labeling, document distribution, requisition assignment, dashboard review, purchase order dispatching; Provide cross-coverage
-Support to customers and other duties as assigned
-REQUIREMENTS:
-High School diploma or GED
-Three (3) years of recent Microsoft Office Suite experience, or similar software (Word, PowerPoint, Excel, Access)
-Three (3) years of recent experience with Enterprise Resource Planning (ERP) and Business Intelligence Tools
-Three (3) years of recent Supply Chain experience
-Three (3) years of recent customer service experience
-Demonstrated proficiency in Enterprise Resource Planning (ERP) and Business Intelligence Tools, including spreadsheet design and report writing
-Effective verbal and written communication skills
-Ability to provide instruction to a variety of users
-Work independently in a self-directed role, as well as in a team setting, using discretion and good judgment
-Demonstrated creative problem resolution
-Ability to negotiate in a hostile or emotional situation
-Accurate and detail oriented
-Organize and prioritize independently
-Demonstrate customer focused service skills
-Working knowledge of email systems
-Systems thinker
-Preferred Qualifications:
-CPM certification, APICS
-Seven (7) years of recent experience in Supply Chain Operations
-Five (5) years of recent experience in this Company Supply Chain
-Three (3) years of recent experience using analytical systems
-Two (2) years of recent experience in use of PeopleSoft/Oracle application, or similar applications
-Experience creating procedures and instructional documents
-Knowledge of medical supplies
-Business process flow diagramming
-Kforce is an Equal Opportunity/Affirmative Action Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, pregnancy, sexual orientation, gender identity, national origin, age, protected veteran status, or disability status.
-provided by Dice
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job DescriptionRESPONSIBILITIES:
-· Develop and support data solutions in support of Supply Chain Planning reporting and analytics requirements
-· Engage with product owner, technology lead, report developers, product analysts, and business partners to understand capability requirements and develop data solutions based on product backlog priorities
-SKILLS / QUALIFICATIONS:
-· 5+ years of experience with data engineering with emphasis on data analytics and reporting
-· Experience developing with scripting languages such as Shell and Python
-· Strong experience developing with PySpark, preferably leveraging AWS EMR managed service
-· Expert experience with SQL and Relational database engineering (Oracle, SQL Server, Teradata)— expert-level SQL abilities
-· Experience with agile delivery methodologies– Scrum, SAFe, Extreme Programming
-· Experience working with source-code management tools such as GitHub and Jenkins
-· Ability to partner with business and technology team members, to understand business requirements and translate those into value-add technology solutions
-ADDITIONAL PREFERENCES ARE:
-· Experience developing solutions in Snowflake
-· Experience with workload automation tools such as Airflow, Autosys.
-· Knowledge of building solutions with data visualization and reporting tools (Tableau, Cognos)
-· Knowledge of Supply Chain Operations / Manufacturing business processes and objectives
-</t>
-  </si>
-  <si>
     <t>What we do:
 Recognized as one the Top 100 Tech Companies by Builtin.com and over 4.4-star review on Glassdoor, SambaSafety® is the pioneer of driver risk management software in North America. Trusted by over 2 million subscribed drivers; thousands of businesses look to Sambasafety to provide the most powerful, advanced, intuitive, and impactful risk solution platform on the market. SambaSafety is growing at an incredible rate with high employee engagement. It's an exciting time to be at Samba. Now is the right time to join our high performing culture. We hope to see you here!
 What You'll Do:
@@ -1624,26 +1039,6 @@
 </t>
   </si>
   <si>
-    <t>This is an outstanding 2 year contract opportunity with our client, a well-respected market leader, located in Beaverton, Oregon.The Production Data Analyst (DA) develops database queries, scripts, tools, and methods to manage data according to client requirements, within defined technical standards, and within time constraints. Emphasis is on ETL procedures. The DA is proficient with relational database concepts and practices, is able to evaluate and write complex SQL queries, and can create and maintain common database objects such as views, stored procedures, and user-defined functions. The DA should be familiar with and able to utilize code management and/or revision control tools and follow standard software development practices. The majority of time is spent developing and refining ETL processes, writing update queries, and writing ad-hoc queries on behalf of clients and stakeholders.
-Job Responsibilities
-Develop and maintain ETL procedures according to client specifications and within defined technical standards.
-Develop and maintain database stored procedures, user-defined functions, views, triggers and other common database objects.
-Write custom and ad-hoc SQL queries and update queries.
-Follow prescribed software development standards, processes, procedures, methodologies, etc., according to departmental policies and conventions.
-Interact and correspond professionally with team members, project management, clients, and other stakeholders.
-Account for and accurately log time against project work.
-BS Computer Science or related discipline, or equivalent industry experience.
-2+ years hands-on experience with MS SQL Server, 2008 R2 or higher, as a developer or DBA.
-Strong SQL skills, able to create and to evaluate complex SQL statements involving numerous tables and complex relationships.
-Ability to work in an environment with deadlines and shifting priorities.
-Basic understanding of and experience with query performance tuning.
-Experience developing and maintaining ETL procedures.
-Experience with SSIS preferred.
-Experience or familiarity with C# or Visual Basic is a plus
-Ability to communicate effectively, both verbally and in writing; able to adjust for intended audience. Fluency in English.
-THIS POSITION IS OPEN TO W-2 CANDIDATES ONLY. NO THIRD PARTIES PLEASE.</t>
-  </si>
-  <si>
     <t>Portland, OR</t>
   </si>
   <si>
@@ -1656,21 +1051,21 @@
     <t>Hillsboro, OR</t>
   </si>
   <si>
+    <t>Roseburg, OR</t>
+  </si>
+  <si>
     <t>Beaverton, OR</t>
   </si>
   <si>
-    <t>Roseburg, OR</t>
-  </si>
-  <si>
     <t>Albany, OR</t>
   </si>
   <si>
+    <t>Burns, OR</t>
+  </si>
+  <si>
     <t>Valby, OR</t>
   </si>
   <si>
-    <t>Burns, OR</t>
-  </si>
-  <si>
     <t>Wilsonville, OR</t>
   </si>
   <si>
@@ -1701,10 +1096,10 @@
     <t>bi analyst</t>
   </si>
   <si>
+    <t>analytics manager</t>
+  </si>
+  <si>
     <t>data scientist</t>
-  </si>
-  <si>
-    <t>analytics manager</t>
   </si>
   <si>
     <t>data engineer</t>
@@ -2159,59 +1554,53 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,19 +1608,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2239,36 +1628,39 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2276,19 +1668,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2296,19 +1688,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2316,19 +1708,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2336,19 +1728,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2356,19 +1748,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2376,19 +1768,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2396,19 +1788,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2416,19 +1808,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2436,36 +1828,39 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2473,19 +1868,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2493,19 +1888,19 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2513,19 +1908,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2533,19 +1928,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2553,39 +1948,39 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2593,59 +1988,59 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2653,16 +2048,16 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2670,19 +2065,19 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2690,19 +2085,19 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2710,39 +2105,39 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2750,539 +2145,461 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="C37" t="s">
-        <v>135</v>
-      </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="D41" t="s">
-        <v>154</v>
-      </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B49" t="s">
-        <v>115</v>
-      </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
         <v>118</v>
       </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="s">
-        <v>144</v>
-      </c>
       <c r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="B53" t="s">
-        <v>119</v>
-      </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>48</v>
       </c>
-      <c r="B55" t="s">
-        <v>121</v>
-      </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3290,39 +2607,36 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>52</v>
       </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3330,73 +2644,73 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3404,458 +2718,458 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
